--- a/Template_resume.xlsx
+++ b/Template_resume.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
@@ -15,7 +15,7 @@
     <sheet name="Visited countries" sheetId="7" r:id="rId6"/>
     <sheet name="Country list" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -91,9 +91,6 @@
     <t>Qualification8</t>
   </si>
   <si>
-    <t>Perion:</t>
-  </si>
-  <si>
     <t>Activities:</t>
   </si>
   <si>
@@ -1346,6 +1343,9 @@
   </si>
   <si>
     <t>Congo Dem</t>
+  </si>
+  <si>
+    <t>Period:</t>
   </si>
 </sst>
 </file>
@@ -13233,7 +13233,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -13268,7 +13268,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -13491,7 +13491,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="7"/>
     </row>
@@ -13559,24 +13559,24 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="7"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -13711,7 +13711,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13725,7 +13725,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>10</v>
@@ -13742,7 +13742,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>11</v>
@@ -13756,13 +13756,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>23</v>
+        <v>441</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>38</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>39</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -13773,13 +13773,13 @@
     </row>
     <row r="4" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -13790,10 +13790,10 @@
     </row>
     <row r="5" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -13804,10 +13804,10 @@
     </row>
     <row r="6" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -13818,7 +13818,7 @@
     </row>
     <row r="7" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -13830,7 +13830,7 @@
     </row>
     <row r="8" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -13842,7 +13842,7 @@
     </row>
     <row r="9" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -13854,7 +13854,7 @@
     </row>
     <row r="10" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -13866,7 +13866,7 @@
     </row>
     <row r="11" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -13878,7 +13878,7 @@
     </row>
     <row r="12" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -13890,7 +13890,7 @@
     </row>
     <row r="13" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -13902,7 +13902,7 @@
     </row>
     <row r="14" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -13914,7 +13914,7 @@
     </row>
     <row r="15" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -13950,15 +13950,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>42</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="14">
         <v>2011</v>
@@ -13966,7 +13966,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="14">
         <v>2011</v>
@@ -14102,35 +14102,35 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -14288,17 +14288,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -14614,7 +14614,7 @@
   <dimension ref="A1:C205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14626,1846 +14626,1846 @@
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="16"/>
       <c r="B1" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>64</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="B3" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>66</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>73</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>81</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>87</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>92</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>104</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>106</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>108</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>111</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>113</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>117</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>122</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="B36" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>125</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>131</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="B40" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="15" t="s">
         <v>133</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" s="15" t="s">
         <v>137</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
       <c r="B44" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="15" t="s">
         <v>141</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
       <c r="B48" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" s="15" t="s">
         <v>146</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="15" t="s">
         <v>148</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="16"/>
       <c r="B50" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="15" t="s">
         <v>150</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="16"/>
       <c r="B51" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="16"/>
       <c r="B52" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="15" t="s">
         <v>153</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="16"/>
       <c r="B53" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>155</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="16"/>
       <c r="B54" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" s="15" t="s">
         <v>157</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="16"/>
       <c r="B55" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" s="15" t="s">
         <v>159</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="16"/>
       <c r="B56" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="16"/>
       <c r="B57" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" s="15" t="s">
         <v>162</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="16"/>
       <c r="B58" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C58" s="15" t="s">
         <v>164</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="16"/>
       <c r="B59" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C59" s="15" t="s">
         <v>166</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="16"/>
       <c r="B60" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C60" s="15" t="s">
         <v>168</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="16"/>
       <c r="B61" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" s="15" t="s">
         <v>170</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="16"/>
       <c r="B62" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C62" s="15" t="s">
         <v>172</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="16"/>
       <c r="B63" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C63" s="15" t="s">
         <v>174</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="16"/>
       <c r="B64" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" s="15" t="s">
         <v>176</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="16"/>
       <c r="B65" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C65" s="15" t="s">
         <v>178</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="16"/>
       <c r="B66" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C66" s="15" t="s">
         <v>180</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="16"/>
       <c r="B67" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C67" s="15" t="s">
         <v>182</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="16"/>
       <c r="B68" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="16"/>
       <c r="B69" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C69" s="15" t="s">
         <v>185</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="16"/>
       <c r="B70" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C70" s="15" t="s">
         <v>187</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="16"/>
       <c r="B71" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C71" s="15" t="s">
         <v>189</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="16"/>
       <c r="B72" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
       <c r="B73" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C73" s="15" t="s">
         <v>192</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="16"/>
       <c r="B74" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C74" s="15" t="s">
         <v>194</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="16"/>
       <c r="B75" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C75" s="15" t="s">
         <v>196</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="16"/>
       <c r="B76" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C76" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="16"/>
       <c r="B77" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C77" s="15" t="s">
         <v>200</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="16"/>
       <c r="B78" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C78" s="15" t="s">
         <v>202</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="16"/>
       <c r="B79" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="16"/>
       <c r="B80" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="C80" s="15" t="s">
         <v>205</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="16"/>
       <c r="B81" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C81" s="15" t="s">
         <v>207</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="16"/>
       <c r="B82" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C82" s="15" t="s">
         <v>209</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="16"/>
       <c r="B83" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C83" s="15" t="s">
         <v>211</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="16"/>
       <c r="B84" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="C84" s="15" t="s">
         <v>213</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="16"/>
       <c r="B85" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C85" s="15" t="s">
         <v>215</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="16"/>
       <c r="B86" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="16"/>
       <c r="B87" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="16"/>
       <c r="B88" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C88" s="15" t="s">
         <v>219</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="16"/>
       <c r="B89" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C89" s="15" t="s">
         <v>221</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="16"/>
       <c r="B90" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="16"/>
       <c r="B91" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C91" s="15" t="s">
         <v>224</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="16"/>
       <c r="B92" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C92" s="15" t="s">
         <v>226</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="16"/>
       <c r="B93" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="C93" s="15" t="s">
         <v>228</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="16"/>
       <c r="B94" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C94" s="15" t="s">
         <v>230</v>
-      </c>
-      <c r="C94" s="15" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="16"/>
       <c r="B95" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C95" s="15" t="s">
         <v>232</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="16"/>
       <c r="B96" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C96" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="16"/>
       <c r="B97" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C97" s="15" t="s">
         <v>236</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="16"/>
       <c r="B98" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C98" s="15" t="s">
         <v>238</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="16"/>
       <c r="B99" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C99" s="15" t="s">
         <v>240</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="16"/>
       <c r="B100" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="C100" s="15" t="s">
         <v>242</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="16"/>
       <c r="B101" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C101" s="15" t="s">
         <v>244</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="16"/>
       <c r="B102" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="C102" s="15" t="s">
         <v>246</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="16"/>
       <c r="B103" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="C103" s="15" t="s">
         <v>248</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="16"/>
       <c r="B104" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="C104" s="15" t="s">
         <v>250</v>
-      </c>
-      <c r="C104" s="15" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="16"/>
       <c r="B105" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="C105" s="15" t="s">
         <v>252</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="16"/>
       <c r="B106" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="C106" s="15" t="s">
         <v>254</v>
-      </c>
-      <c r="C106" s="15" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="16"/>
       <c r="B107" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="C107" s="15" t="s">
         <v>256</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="16"/>
       <c r="B108" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C108" s="15" t="s">
         <v>258</v>
-      </c>
-      <c r="C108" s="15" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="16"/>
       <c r="B109" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="C109" s="15" t="s">
         <v>260</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="16"/>
       <c r="B110" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="C110" s="15" t="s">
         <v>262</v>
-      </c>
-      <c r="C110" s="15" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="16"/>
       <c r="B111" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C111" s="15" t="s">
         <v>264</v>
-      </c>
-      <c r="C111" s="15" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="16"/>
       <c r="B112" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C112" s="15" t="s">
         <v>266</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="16"/>
       <c r="B113" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="C113" s="15" t="s">
         <v>268</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="16"/>
       <c r="B114" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="16"/>
       <c r="B115" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="C115" s="15" t="s">
         <v>271</v>
-      </c>
-      <c r="C115" s="15" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="16"/>
       <c r="B116" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="C116" s="15" t="s">
         <v>273</v>
-      </c>
-      <c r="C116" s="15" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="16"/>
       <c r="B117" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="C117" s="15" t="s">
         <v>275</v>
-      </c>
-      <c r="C117" s="15" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="16"/>
       <c r="B118" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C118" s="15" t="s">
         <v>277</v>
-      </c>
-      <c r="C118" s="15" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="16"/>
       <c r="B119" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="C119" s="15" t="s">
         <v>279</v>
-      </c>
-      <c r="C119" s="15" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="16"/>
       <c r="B120" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="C120" s="15" t="s">
         <v>281</v>
-      </c>
-      <c r="C120" s="15" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="16"/>
       <c r="B121" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C121" s="15" t="s">
         <v>283</v>
-      </c>
-      <c r="C121" s="15" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="16"/>
       <c r="B122" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="C122" s="15" t="s">
         <v>285</v>
-      </c>
-      <c r="C122" s="15" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="16"/>
       <c r="B123" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="C123" s="15" t="s">
         <v>287</v>
-      </c>
-      <c r="C123" s="15" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="16"/>
       <c r="B124" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="C124" s="15" t="s">
         <v>289</v>
-      </c>
-      <c r="C124" s="15" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="16"/>
       <c r="B125" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="16"/>
       <c r="B126" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="16"/>
       <c r="B127" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="C127" s="15" t="s">
         <v>293</v>
-      </c>
-      <c r="C127" s="15" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="16"/>
       <c r="B128" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="C128" s="15" t="s">
         <v>295</v>
-      </c>
-      <c r="C128" s="15" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="16"/>
       <c r="B129" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C129" s="15" t="s">
         <v>297</v>
-      </c>
-      <c r="C129" s="15" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="16"/>
       <c r="B130" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="C130" s="15" t="s">
         <v>299</v>
-      </c>
-      <c r="C130" s="15" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="16"/>
       <c r="B131" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="C131" s="15" t="s">
         <v>301</v>
-      </c>
-      <c r="C131" s="15" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="16"/>
       <c r="B132" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="C132" s="15" t="s">
         <v>303</v>
-      </c>
-      <c r="C132" s="15" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="16"/>
       <c r="B133" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="16"/>
       <c r="B134" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="C134" s="15" t="s">
         <v>306</v>
-      </c>
-      <c r="C134" s="15" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="16"/>
       <c r="B135" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C135" s="15" t="s">
         <v>308</v>
-      </c>
-      <c r="C135" s="15" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="16"/>
       <c r="B136" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="C136" s="15" t="s">
         <v>310</v>
-      </c>
-      <c r="C136" s="15" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="16"/>
       <c r="B137" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="C137" s="15" t="s">
         <v>312</v>
-      </c>
-      <c r="C137" s="15" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="16"/>
       <c r="B138" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C138" s="15" t="s">
         <v>314</v>
-      </c>
-      <c r="C138" s="15" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="16"/>
       <c r="B139" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="C139" s="15" t="s">
         <v>316</v>
-      </c>
-      <c r="C139" s="15" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="16"/>
       <c r="B140" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C140" s="15" t="s">
         <v>318</v>
-      </c>
-      <c r="C140" s="15" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="16"/>
       <c r="B141" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="C141" s="15" t="s">
         <v>320</v>
-      </c>
-      <c r="C141" s="15" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="16"/>
       <c r="B142" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="C142" s="15" t="s">
         <v>322</v>
-      </c>
-      <c r="C142" s="15" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="16"/>
       <c r="B143" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="C143" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="C143" s="15" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="16"/>
       <c r="B144" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="C144" s="15" t="s">
         <v>326</v>
-      </c>
-      <c r="C144" s="15" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="16"/>
       <c r="B145" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="C145" s="15" t="s">
         <v>328</v>
-      </c>
-      <c r="C145" s="15" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="16"/>
       <c r="B146" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="C146" s="15" t="s">
         <v>330</v>
-      </c>
-      <c r="C146" s="15" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="16"/>
       <c r="B147" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C147" s="15" t="s">
         <v>332</v>
-      </c>
-      <c r="C147" s="15" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="16"/>
       <c r="B148" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="C148" s="15" t="s">
         <v>334</v>
-      </c>
-      <c r="C148" s="15" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="16"/>
       <c r="B149" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="C149" s="15" t="s">
         <v>336</v>
-      </c>
-      <c r="C149" s="15" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="16"/>
       <c r="B150" s="17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C150" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="16"/>
       <c r="B151" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="C151" s="15" t="s">
         <v>339</v>
-      </c>
-      <c r="C151" s="15" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="16"/>
       <c r="B152" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="C152" s="15" t="s">
         <v>341</v>
-      </c>
-      <c r="C152" s="15" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="16"/>
       <c r="B153" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="C153" s="15" t="s">
         <v>343</v>
-      </c>
-      <c r="C153" s="15" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="16"/>
       <c r="B154" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="C154" s="15" t="s">
         <v>345</v>
-      </c>
-      <c r="C154" s="15" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="16"/>
       <c r="B155" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C155" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="16"/>
       <c r="B156" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C156" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="16"/>
       <c r="B157" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="C157" s="15" t="s">
         <v>349</v>
-      </c>
-      <c r="C157" s="15" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="16"/>
       <c r="B158" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="C158" s="15" t="s">
         <v>351</v>
-      </c>
-      <c r="C158" s="15" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="16"/>
       <c r="B159" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="C159" s="15" t="s">
         <v>353</v>
-      </c>
-      <c r="C159" s="15" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="16"/>
       <c r="B160" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C160" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="16"/>
       <c r="B161" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="C161" s="15" t="s">
         <v>356</v>
-      </c>
-      <c r="C161" s="15" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="16"/>
       <c r="B162" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="C162" s="15" t="s">
         <v>358</v>
-      </c>
-      <c r="C162" s="15" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="16"/>
       <c r="B163" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="C163" s="15" t="s">
         <v>360</v>
-      </c>
-      <c r="C163" s="15" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="16"/>
       <c r="B164" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="C164" s="15" t="s">
         <v>362</v>
-      </c>
-      <c r="C164" s="15" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="16"/>
       <c r="B165" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="C165" s="15" t="s">
         <v>364</v>
-      </c>
-      <c r="C165" s="15" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="16"/>
       <c r="B166" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="C166" s="15" t="s">
         <v>366</v>
-      </c>
-      <c r="C166" s="15" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="16"/>
       <c r="B167" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="C167" s="15" t="s">
         <v>368</v>
-      </c>
-      <c r="C167" s="15" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="16"/>
       <c r="B168" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C168" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="16"/>
       <c r="B169" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="C169" s="15" t="s">
         <v>371</v>
-      </c>
-      <c r="C169" s="15" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="16"/>
       <c r="B170" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="C170" s="15" t="s">
         <v>373</v>
-      </c>
-      <c r="C170" s="15" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="16"/>
       <c r="B171" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="C171" s="15" t="s">
         <v>375</v>
-      </c>
-      <c r="C171" s="15" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="16"/>
       <c r="B172" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="C172" s="15" t="s">
         <v>377</v>
-      </c>
-      <c r="C172" s="15" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="16"/>
       <c r="B173" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="C173" s="15" t="s">
         <v>379</v>
-      </c>
-      <c r="C173" s="15" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="16"/>
       <c r="B174" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="C174" s="15" t="s">
         <v>381</v>
-      </c>
-      <c r="C174" s="15" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="16"/>
       <c r="B175" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="C175" s="15" t="s">
         <v>383</v>
-      </c>
-      <c r="C175" s="15" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="16"/>
       <c r="B176" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="C176" s="15" t="s">
         <v>385</v>
-      </c>
-      <c r="C176" s="15" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="16"/>
       <c r="B177" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="C177" s="15" t="s">
         <v>387</v>
-      </c>
-      <c r="C177" s="15" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="16"/>
       <c r="B178" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="C178" s="15" t="s">
         <v>389</v>
-      </c>
-      <c r="C178" s="15" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="16"/>
       <c r="B179" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C179" s="15" t="s">
         <v>391</v>
-      </c>
-      <c r="C179" s="15" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="16"/>
       <c r="B180" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="C180" s="15" t="s">
         <v>393</v>
-      </c>
-      <c r="C180" s="15" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="16"/>
       <c r="B181" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="C181" s="15" t="s">
         <v>395</v>
-      </c>
-      <c r="C181" s="15" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="16"/>
       <c r="B182" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="C182" s="15" t="s">
         <v>397</v>
-      </c>
-      <c r="C182" s="15" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="16"/>
       <c r="B183" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="C183" s="15" t="s">
         <v>399</v>
-      </c>
-      <c r="C183" s="15" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="16"/>
       <c r="B184" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="C184" s="15" t="s">
         <v>401</v>
-      </c>
-      <c r="C184" s="15" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="16"/>
       <c r="B185" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="C185" s="15" t="s">
         <v>403</v>
-      </c>
-      <c r="C185" s="15" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="16"/>
       <c r="B186" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="C186" s="15" t="s">
         <v>405</v>
-      </c>
-      <c r="C186" s="15" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="16"/>
       <c r="B187" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="C187" s="15" t="s">
         <v>407</v>
-      </c>
-      <c r="C187" s="15" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="16"/>
       <c r="B188" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C188" s="15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="16"/>
       <c r="B189" s="17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C189" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="16"/>
       <c r="B190" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="C190" s="15" t="s">
         <v>411</v>
-      </c>
-      <c r="C190" s="15" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="16"/>
       <c r="B191" s="17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C191" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="16"/>
       <c r="B192" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C192" s="15" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="16"/>
       <c r="B193" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="C193" s="15" t="s">
         <v>415</v>
-      </c>
-      <c r="C193" s="15" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="16"/>
       <c r="B194" s="17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C194" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="16"/>
       <c r="B195" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C195" s="15" t="s">
         <v>418</v>
-      </c>
-      <c r="C195" s="15" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="16"/>
       <c r="B196" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="C196" s="15" t="s">
         <v>420</v>
-      </c>
-      <c r="C196" s="15" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="16"/>
       <c r="B197" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="C197" s="15" t="s">
         <v>422</v>
-      </c>
-      <c r="C197" s="15" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="16"/>
       <c r="B198" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="C198" s="15" t="s">
         <v>424</v>
-      </c>
-      <c r="C198" s="15" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="16"/>
       <c r="B199" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="C199" s="15" t="s">
         <v>426</v>
-      </c>
-      <c r="C199" s="15" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="16"/>
       <c r="B200" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="C200" s="15" t="s">
         <v>428</v>
-      </c>
-      <c r="C200" s="15" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="16"/>
       <c r="B201" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="C201" s="15" t="s">
         <v>430</v>
-      </c>
-      <c r="C201" s="15" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="16"/>
       <c r="B202" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C202" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="16"/>
       <c r="B203" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="C203" s="15" t="s">
         <v>433</v>
-      </c>
-      <c r="C203" s="15" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="16"/>
       <c r="B204" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="C204" s="15" t="s">
         <v>435</v>
-      </c>
-      <c r="C204" s="15" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="16"/>
       <c r="B205" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="C205" s="15" t="s">
         <v>437</v>
-      </c>
-      <c r="C205" s="15" t="s">
-        <v>438</v>
       </c>
     </row>
   </sheetData>

--- a/Template_resume.xlsx
+++ b/Template_resume.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="General data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="443">
   <si>
     <t>Name:</t>
   </si>
@@ -1346,6 +1346,9 @@
   </si>
   <si>
     <t>Period:</t>
+  </si>
+  <si>
+    <t>152-123-23</t>
   </si>
 </sst>
 </file>
@@ -13479,8 +13482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13545,8 +13548,8 @@
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="9">
-        <v>152</v>
+      <c r="B9" s="9" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -13586,6 +13589,7 @@
     <hyperlink ref="B14" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -14613,7 +14617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/Template_resume.xlsx
+++ b/Template_resume.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General data" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="Visited countries" sheetId="7" r:id="rId6"/>
     <sheet name="Country list" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="442">
   <si>
     <t>Name:</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Qualification8</t>
-  </si>
-  <si>
-    <t>Activities:</t>
   </si>
   <si>
     <t>Worker</t>
@@ -13236,7 +13233,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -13271,7 +13268,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -13482,7 +13479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -13494,7 +13491,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="7"/>
     </row>
@@ -13549,7 +13546,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -13562,24 +13559,24 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="7"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -13712,10 +13709,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13729,7 +13726,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>10</v>
@@ -13746,7 +13743,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>11</v>
@@ -13760,13 +13757,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>38</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -13776,14 +13773,15 @@
       <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>23</v>
+      <c r="A4" s="5" t="str">
+        <f>IF(ISBLANK(B4),"","Activity:")</f>
+        <v>Activity:</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -13793,11 +13791,15 @@
       <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="str">
+        <f>IF(ISBLANK(B5),"","Activity:")</f>
+        <v>Activity:</v>
+      </c>
       <c r="B5" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -13807,11 +13809,15 @@
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="str">
+        <f t="shared" ref="A6:A50" si="0">IF(ISBLANK(B6),"","Activity:")</f>
+        <v>Activity:</v>
+      </c>
       <c r="B6" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -13821,8 +13827,12 @@
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Activity:</v>
+      </c>
       <c r="B7" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -13833,8 +13843,12 @@
       <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Activity:</v>
+      </c>
       <c r="B8" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -13845,8 +13859,12 @@
       <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Activity:</v>
+      </c>
       <c r="B9" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -13857,8 +13875,12 @@
       <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Activity:</v>
+      </c>
       <c r="B10" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -13869,8 +13891,12 @@
       <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Activity:</v>
+      </c>
       <c r="B11" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -13881,8 +13907,12 @@
       <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Activity:</v>
+      </c>
       <c r="B12" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -13893,8 +13923,12 @@
       <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Activity:</v>
+      </c>
       <c r="B13" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -13905,8 +13939,12 @@
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Activity:</v>
+      </c>
       <c r="B14" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -13917,8 +13955,12 @@
       <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Activity:</v>
+      </c>
       <c r="B15" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -13928,11 +13970,217 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B16" s="12"/>
+    </row>
+    <row r="17" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13954,15 +14202,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="14">
         <v>2011</v>
@@ -13970,7 +14218,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="14">
         <v>2011</v>
@@ -14106,35 +14354,35 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -14292,17 +14540,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -14630,1846 +14878,1846 @@
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="16"/>
       <c r="B1" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>63</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="B3" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>76</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>89</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>96</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>98</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>101</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>103</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>105</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>107</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>110</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>112</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>114</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>116</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>118</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>121</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="B36" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>128</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>130</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="B40" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="15" t="s">
         <v>132</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="15" t="s">
         <v>136</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
       <c r="B44" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>138</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="15" t="s">
         <v>140</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="15" t="s">
         <v>142</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
       <c r="B48" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="15" t="s">
         <v>147</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="16"/>
       <c r="B50" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="15" t="s">
         <v>149</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="16"/>
       <c r="B51" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="16"/>
       <c r="B52" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" s="15" t="s">
         <v>152</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="16"/>
       <c r="B53" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>154</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="16"/>
       <c r="B54" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" s="15" t="s">
         <v>156</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="16"/>
       <c r="B55" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C55" s="15" t="s">
         <v>158</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="16"/>
       <c r="B56" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="16"/>
       <c r="B57" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" s="15" t="s">
         <v>161</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="16"/>
       <c r="B58" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="15" t="s">
         <v>163</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="16"/>
       <c r="B59" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" s="15" t="s">
         <v>165</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="16"/>
       <c r="B60" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" s="15" t="s">
         <v>167</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="16"/>
       <c r="B61" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" s="15" t="s">
         <v>169</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="16"/>
       <c r="B62" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C62" s="15" t="s">
         <v>171</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="16"/>
       <c r="B63" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63" s="15" t="s">
         <v>173</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="16"/>
       <c r="B64" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C64" s="15" t="s">
         <v>175</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="16"/>
       <c r="B65" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" s="15" t="s">
         <v>177</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="16"/>
       <c r="B66" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C66" s="15" t="s">
         <v>179</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="16"/>
       <c r="B67" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C67" s="15" t="s">
         <v>181</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="16"/>
       <c r="B68" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="16"/>
       <c r="B69" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C69" s="15" t="s">
         <v>184</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="16"/>
       <c r="B70" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C70" s="15" t="s">
         <v>186</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="16"/>
       <c r="B71" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="C71" s="15" t="s">
         <v>188</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="16"/>
       <c r="B72" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
       <c r="B73" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C73" s="15" t="s">
         <v>191</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="16"/>
       <c r="B74" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C74" s="15" t="s">
         <v>193</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="16"/>
       <c r="B75" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C75" s="15" t="s">
         <v>195</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="16"/>
       <c r="B76" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C76" s="15" t="s">
         <v>197</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="16"/>
       <c r="B77" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C77" s="15" t="s">
         <v>199</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="16"/>
       <c r="B78" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C78" s="15" t="s">
         <v>201</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="16"/>
       <c r="B79" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="16"/>
       <c r="B80" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C80" s="15" t="s">
         <v>204</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="16"/>
       <c r="B81" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C81" s="15" t="s">
         <v>206</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="16"/>
       <c r="B82" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C82" s="15" t="s">
         <v>208</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="16"/>
       <c r="B83" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C83" s="15" t="s">
         <v>210</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="16"/>
       <c r="B84" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C84" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="16"/>
       <c r="B85" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C85" s="15" t="s">
         <v>214</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="16"/>
       <c r="B86" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="16"/>
       <c r="B87" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="16"/>
       <c r="B88" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C88" s="15" t="s">
         <v>218</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="16"/>
       <c r="B89" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C89" s="15" t="s">
         <v>220</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="16"/>
       <c r="B90" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="16"/>
       <c r="B91" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C91" s="15" t="s">
         <v>223</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="16"/>
       <c r="B92" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C92" s="15" t="s">
         <v>225</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="16"/>
       <c r="B93" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="C93" s="15" t="s">
         <v>227</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="16"/>
       <c r="B94" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C94" s="15" t="s">
         <v>229</v>
-      </c>
-      <c r="C94" s="15" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="16"/>
       <c r="B95" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C95" s="15" t="s">
         <v>231</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="16"/>
       <c r="B96" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="C96" s="15" t="s">
         <v>233</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="16"/>
       <c r="B97" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="C97" s="15" t="s">
         <v>235</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="16"/>
       <c r="B98" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C98" s="15" t="s">
         <v>237</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="16"/>
       <c r="B99" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C99" s="15" t="s">
         <v>239</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="16"/>
       <c r="B100" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="C100" s="15" t="s">
         <v>241</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="16"/>
       <c r="B101" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="C101" s="15" t="s">
         <v>243</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="16"/>
       <c r="B102" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="C102" s="15" t="s">
         <v>245</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="16"/>
       <c r="B103" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="C103" s="15" t="s">
         <v>247</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="16"/>
       <c r="B104" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="C104" s="15" t="s">
         <v>249</v>
-      </c>
-      <c r="C104" s="15" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="16"/>
       <c r="B105" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C105" s="15" t="s">
         <v>251</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="16"/>
       <c r="B106" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="C106" s="15" t="s">
         <v>253</v>
-      </c>
-      <c r="C106" s="15" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="16"/>
       <c r="B107" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C107" s="15" t="s">
         <v>255</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="16"/>
       <c r="B108" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="C108" s="15" t="s">
         <v>257</v>
-      </c>
-      <c r="C108" s="15" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="16"/>
       <c r="B109" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="C109" s="15" t="s">
         <v>259</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="16"/>
       <c r="B110" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="C110" s="15" t="s">
         <v>261</v>
-      </c>
-      <c r="C110" s="15" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="16"/>
       <c r="B111" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="C111" s="15" t="s">
         <v>263</v>
-      </c>
-      <c r="C111" s="15" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="16"/>
       <c r="B112" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C112" s="15" t="s">
         <v>265</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="16"/>
       <c r="B113" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C113" s="15" t="s">
         <v>267</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="16"/>
       <c r="B114" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="16"/>
       <c r="B115" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="C115" s="15" t="s">
         <v>270</v>
-      </c>
-      <c r="C115" s="15" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="16"/>
       <c r="B116" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C116" s="15" t="s">
         <v>272</v>
-      </c>
-      <c r="C116" s="15" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="16"/>
       <c r="B117" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="C117" s="15" t="s">
         <v>274</v>
-      </c>
-      <c r="C117" s="15" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="16"/>
       <c r="B118" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="C118" s="15" t="s">
         <v>276</v>
-      </c>
-      <c r="C118" s="15" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="16"/>
       <c r="B119" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C119" s="15" t="s">
         <v>278</v>
-      </c>
-      <c r="C119" s="15" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="16"/>
       <c r="B120" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="C120" s="15" t="s">
         <v>280</v>
-      </c>
-      <c r="C120" s="15" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="16"/>
       <c r="B121" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="C121" s="15" t="s">
         <v>282</v>
-      </c>
-      <c r="C121" s="15" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="16"/>
       <c r="B122" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="C122" s="15" t="s">
         <v>284</v>
-      </c>
-      <c r="C122" s="15" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="16"/>
       <c r="B123" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="C123" s="15" t="s">
         <v>286</v>
-      </c>
-      <c r="C123" s="15" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="16"/>
       <c r="B124" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C124" s="15" t="s">
         <v>288</v>
-      </c>
-      <c r="C124" s="15" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="16"/>
       <c r="B125" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="16"/>
       <c r="B126" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="16"/>
       <c r="B127" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C127" s="15" t="s">
         <v>292</v>
-      </c>
-      <c r="C127" s="15" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="16"/>
       <c r="B128" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="C128" s="15" t="s">
         <v>294</v>
-      </c>
-      <c r="C128" s="15" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="16"/>
       <c r="B129" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="C129" s="15" t="s">
         <v>296</v>
-      </c>
-      <c r="C129" s="15" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="16"/>
       <c r="B130" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C130" s="15" t="s">
         <v>298</v>
-      </c>
-      <c r="C130" s="15" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="16"/>
       <c r="B131" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="C131" s="15" t="s">
         <v>300</v>
-      </c>
-      <c r="C131" s="15" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="16"/>
       <c r="B132" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C132" s="15" t="s">
         <v>302</v>
-      </c>
-      <c r="C132" s="15" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="16"/>
       <c r="B133" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="16"/>
       <c r="B134" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="C134" s="15" t="s">
         <v>305</v>
-      </c>
-      <c r="C134" s="15" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="16"/>
       <c r="B135" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C135" s="15" t="s">
         <v>307</v>
-      </c>
-      <c r="C135" s="15" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="16"/>
       <c r="B136" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="C136" s="15" t="s">
         <v>309</v>
-      </c>
-      <c r="C136" s="15" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="16"/>
       <c r="B137" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="C137" s="15" t="s">
         <v>311</v>
-      </c>
-      <c r="C137" s="15" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="16"/>
       <c r="B138" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="C138" s="15" t="s">
         <v>313</v>
-      </c>
-      <c r="C138" s="15" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="16"/>
       <c r="B139" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="C139" s="15" t="s">
         <v>315</v>
-      </c>
-      <c r="C139" s="15" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="16"/>
       <c r="B140" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="C140" s="15" t="s">
         <v>317</v>
-      </c>
-      <c r="C140" s="15" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="16"/>
       <c r="B141" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="C141" s="15" t="s">
         <v>319</v>
-      </c>
-      <c r="C141" s="15" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="16"/>
       <c r="B142" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="C142" s="15" t="s">
         <v>321</v>
-      </c>
-      <c r="C142" s="15" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="16"/>
       <c r="B143" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="C143" s="15" t="s">
         <v>323</v>
-      </c>
-      <c r="C143" s="15" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="16"/>
       <c r="B144" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="C144" s="15" t="s">
         <v>325</v>
-      </c>
-      <c r="C144" s="15" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="16"/>
       <c r="B145" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="C145" s="15" t="s">
         <v>327</v>
-      </c>
-      <c r="C145" s="15" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="16"/>
       <c r="B146" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="C146" s="15" t="s">
         <v>329</v>
-      </c>
-      <c r="C146" s="15" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="16"/>
       <c r="B147" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="C147" s="15" t="s">
         <v>331</v>
-      </c>
-      <c r="C147" s="15" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="16"/>
       <c r="B148" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="C148" s="15" t="s">
         <v>333</v>
-      </c>
-      <c r="C148" s="15" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="16"/>
       <c r="B149" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="C149" s="15" t="s">
         <v>335</v>
-      </c>
-      <c r="C149" s="15" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="16"/>
       <c r="B150" s="17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C150" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="16"/>
       <c r="B151" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="C151" s="15" t="s">
         <v>338</v>
-      </c>
-      <c r="C151" s="15" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="16"/>
       <c r="B152" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="C152" s="15" t="s">
         <v>340</v>
-      </c>
-      <c r="C152" s="15" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="16"/>
       <c r="B153" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="C153" s="15" t="s">
         <v>342</v>
-      </c>
-      <c r="C153" s="15" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="16"/>
       <c r="B154" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="C154" s="15" t="s">
         <v>344</v>
-      </c>
-      <c r="C154" s="15" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="16"/>
       <c r="B155" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C155" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="16"/>
       <c r="B156" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C156" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="16"/>
       <c r="B157" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="C157" s="15" t="s">
         <v>348</v>
-      </c>
-      <c r="C157" s="15" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="16"/>
       <c r="B158" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="C158" s="15" t="s">
         <v>350</v>
-      </c>
-      <c r="C158" s="15" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="16"/>
       <c r="B159" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="C159" s="15" t="s">
         <v>352</v>
-      </c>
-      <c r="C159" s="15" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="16"/>
       <c r="B160" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C160" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="16"/>
       <c r="B161" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="C161" s="15" t="s">
         <v>355</v>
-      </c>
-      <c r="C161" s="15" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="16"/>
       <c r="B162" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="C162" s="15" t="s">
         <v>357</v>
-      </c>
-      <c r="C162" s="15" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="16"/>
       <c r="B163" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C163" s="15" t="s">
         <v>359</v>
-      </c>
-      <c r="C163" s="15" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="16"/>
       <c r="B164" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="C164" s="15" t="s">
         <v>361</v>
-      </c>
-      <c r="C164" s="15" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="16"/>
       <c r="B165" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="C165" s="15" t="s">
         <v>363</v>
-      </c>
-      <c r="C165" s="15" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="16"/>
       <c r="B166" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="C166" s="15" t="s">
         <v>365</v>
-      </c>
-      <c r="C166" s="15" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="16"/>
       <c r="B167" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="C167" s="15" t="s">
         <v>367</v>
-      </c>
-      <c r="C167" s="15" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="16"/>
       <c r="B168" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C168" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="16"/>
       <c r="B169" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="C169" s="15" t="s">
         <v>370</v>
-      </c>
-      <c r="C169" s="15" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="16"/>
       <c r="B170" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="C170" s="15" t="s">
         <v>372</v>
-      </c>
-      <c r="C170" s="15" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="16"/>
       <c r="B171" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="C171" s="15" t="s">
         <v>374</v>
-      </c>
-      <c r="C171" s="15" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="16"/>
       <c r="B172" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="C172" s="15" t="s">
         <v>376</v>
-      </c>
-      <c r="C172" s="15" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="16"/>
       <c r="B173" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="C173" s="15" t="s">
         <v>378</v>
-      </c>
-      <c r="C173" s="15" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="16"/>
       <c r="B174" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="C174" s="15" t="s">
         <v>380</v>
-      </c>
-      <c r="C174" s="15" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="16"/>
       <c r="B175" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="C175" s="15" t="s">
         <v>382</v>
-      </c>
-      <c r="C175" s="15" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="16"/>
       <c r="B176" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="C176" s="15" t="s">
         <v>384</v>
-      </c>
-      <c r="C176" s="15" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="16"/>
       <c r="B177" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="C177" s="15" t="s">
         <v>386</v>
-      </c>
-      <c r="C177" s="15" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="16"/>
       <c r="B178" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="C178" s="15" t="s">
         <v>388</v>
-      </c>
-      <c r="C178" s="15" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="16"/>
       <c r="B179" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="C179" s="15" t="s">
         <v>390</v>
-      </c>
-      <c r="C179" s="15" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="16"/>
       <c r="B180" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C180" s="15" t="s">
         <v>392</v>
-      </c>
-      <c r="C180" s="15" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="16"/>
       <c r="B181" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="C181" s="15" t="s">
         <v>394</v>
-      </c>
-      <c r="C181" s="15" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="16"/>
       <c r="B182" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="C182" s="15" t="s">
         <v>396</v>
-      </c>
-      <c r="C182" s="15" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="16"/>
       <c r="B183" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="C183" s="15" t="s">
         <v>398</v>
-      </c>
-      <c r="C183" s="15" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="16"/>
       <c r="B184" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="C184" s="15" t="s">
         <v>400</v>
-      </c>
-      <c r="C184" s="15" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="16"/>
       <c r="B185" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="C185" s="15" t="s">
         <v>402</v>
-      </c>
-      <c r="C185" s="15" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="16"/>
       <c r="B186" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="C186" s="15" t="s">
         <v>404</v>
-      </c>
-      <c r="C186" s="15" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="16"/>
       <c r="B187" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="C187" s="15" t="s">
         <v>406</v>
-      </c>
-      <c r="C187" s="15" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="16"/>
       <c r="B188" s="17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C188" s="15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="16"/>
       <c r="B189" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C189" s="15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="16"/>
       <c r="B190" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="C190" s="15" t="s">
         <v>410</v>
-      </c>
-      <c r="C190" s="15" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="16"/>
       <c r="B191" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C191" s="15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="16"/>
       <c r="B192" s="17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C192" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="16"/>
       <c r="B193" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="C193" s="15" t="s">
         <v>414</v>
-      </c>
-      <c r="C193" s="15" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="16"/>
       <c r="B194" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C194" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="16"/>
       <c r="B195" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="C195" s="15" t="s">
         <v>417</v>
-      </c>
-      <c r="C195" s="15" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="16"/>
       <c r="B196" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="C196" s="15" t="s">
         <v>419</v>
-      </c>
-      <c r="C196" s="15" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="16"/>
       <c r="B197" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="C197" s="15" t="s">
         <v>421</v>
-      </c>
-      <c r="C197" s="15" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="16"/>
       <c r="B198" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="C198" s="15" t="s">
         <v>423</v>
-      </c>
-      <c r="C198" s="15" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="16"/>
       <c r="B199" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="C199" s="15" t="s">
         <v>425</v>
-      </c>
-      <c r="C199" s="15" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="16"/>
       <c r="B200" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="C200" s="15" t="s">
         <v>427</v>
-      </c>
-      <c r="C200" s="15" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="16"/>
       <c r="B201" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="C201" s="15" t="s">
         <v>429</v>
-      </c>
-      <c r="C201" s="15" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="16"/>
       <c r="B202" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C202" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="16"/>
       <c r="B203" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="C203" s="15" t="s">
         <v>432</v>
-      </c>
-      <c r="C203" s="15" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="16"/>
       <c r="B204" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="C204" s="15" t="s">
         <v>434</v>
-      </c>
-      <c r="C204" s="15" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="16"/>
       <c r="B205" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="C205" s="15" t="s">
         <v>436</v>
-      </c>
-      <c r="C205" s="15" t="s">
-        <v>437</v>
       </c>
     </row>
   </sheetData>

--- a/Template_resume.xlsx
+++ b/Template_resume.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="General data" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="Visited countries" sheetId="7" r:id="rId6"/>
     <sheet name="Country list" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="445">
   <si>
     <t>Name:</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Current state</t>
   </si>
   <si>
-    <t>IHAR</t>
-  </si>
-  <si>
     <t>KARATKOU</t>
   </si>
   <si>
@@ -1346,6 +1343,18 @@
   </si>
   <si>
     <t>152-123-23</t>
+  </si>
+  <si>
+    <t>Visited countries IDs</t>
+  </si>
+  <si>
+    <t>03.2011</t>
+  </si>
+  <si>
+    <t>07.2011-08.2011</t>
+  </si>
+  <si>
+    <t>NICALAY</t>
   </si>
 </sst>
 </file>
@@ -1434,13 +1443,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1469,9 +1475,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1481,7 +1484,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -13233,7 +13258,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -13268,7 +13293,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -13479,104 +13504,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47" style="4" customWidth="1"/>
+    <col min="2" max="2" width="47" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="7"/>
+      <c r="A1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="9" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="7"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="B13" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -13604,103 +13629,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="3" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="4" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="5" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="6" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    <row r="7" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="8" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="9" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
     <row r="10" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="A10" s="11"/>
     </row>
     <row r="11" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="11"/>
     </row>
     <row r="12" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="11"/>
     </row>
     <row r="13" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="11"/>
     </row>
     <row r="14" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="11"/>
     </row>
     <row r="15" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+      <c r="A15" s="11"/>
     </row>
     <row r="16" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+      <c r="A16" s="11"/>
     </row>
     <row r="17" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="A17" s="11"/>
     </row>
     <row r="18" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+      <c r="A18" s="11"/>
     </row>
     <row r="19" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="11"/>
     </row>
     <row r="20" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+      <c r="A20" s="11"/>
     </row>
     <row r="21" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+      <c r="A21" s="11"/>
     </row>
     <row r="22" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="A22" s="11"/>
     </row>
     <row r="23" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+      <c r="A23" s="11"/>
     </row>
     <row r="24" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+      <c r="A24" s="11"/>
     </row>
     <row r="25" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="11"/>
     </row>
     <row r="26" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+      <c r="A26" s="11"/>
     </row>
     <row r="27" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
+      <c r="A27" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13711,7 +13736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -13722,461 +13747,461 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="str">
+      <c r="A4" s="4" t="str">
         <f>IF(ISBLANK(B4),"","Activity:")</f>
         <v>Activity:</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="B4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="str">
+      <c r="A5" s="4" t="str">
         <f>IF(ISBLANK(B5),"","Activity:")</f>
         <v>Activity:</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="B5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="str">
+      <c r="A6" s="4" t="str">
         <f t="shared" ref="A6:A50" si="0">IF(ISBLANK(B6),"","Activity:")</f>
         <v>Activity:</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="B6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="str">
+      <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Activity:</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="B7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="str">
+      <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Activity:</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="B8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="str">
+      <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Activity:</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="B9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="str">
+      <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Activity:</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="B10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="str">
+      <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Activity:</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="B11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="str">
+      <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Activity:</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+      <c r="B12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="str">
+      <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Activity:</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+      <c r="B13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="str">
+      <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Activity:</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
+      <c r="B14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="str">
+      <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Activity:</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
+      <c r="B15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="str">
+      <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="str">
+      <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="str">
+      <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="str">
+      <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="str">
+      <c r="A20" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="str">
+      <c r="A21" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="str">
+      <c r="A22" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="str">
+      <c r="A23" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="str">
+      <c r="A24" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="str">
+      <c r="A25" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="str">
+      <c r="A26" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="str">
+      <c r="A27" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="str">
+      <c r="A28" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="str">
+      <c r="A29" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="str">
+      <c r="A30" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="str">
+      <c r="A31" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="str">
+      <c r="A32" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="str">
+      <c r="A33" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="str">
+      <c r="A34" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="str">
+      <c r="A35" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="str">
+      <c r="A36" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="str">
+      <c r="A37" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="str">
+      <c r="A38" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="str">
+      <c r="A39" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="str">
+      <c r="A40" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="str">
+      <c r="A41" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="str">
+      <c r="A42" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="str">
+      <c r="A43" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="str">
+      <c r="A44" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="str">
+      <c r="A45" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="str">
+      <c r="A46" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="str">
+      <c r="A47" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="str">
+      <c r="A48" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="str">
+      <c r="A49" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="str">
+      <c r="A50" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -14191,149 +14216,150 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="64.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="2" max="2" width="15" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="13" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="B2" s="20" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="14">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="14">
-        <v>2011</v>
+      <c r="B3" s="20" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="20"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="20"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="20"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="20"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="20"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="20"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="20"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="20"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="20"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="20"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="20"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="20"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="20"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="20"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="20"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="20"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="20"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="20"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="20"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="14"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="20"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="14"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="20"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="20"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="14"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="20"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="14"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="20"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="14"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="20"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="14"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="20"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="14"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14342,183 +14368,183 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="13" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="17"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="17"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="17"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="17"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="17"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="17"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="17"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="17"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="17"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="17"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="17"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="17"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="17"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="17"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="17"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="17"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="17"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="17"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="17"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="17"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="17"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="17"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="17"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="17"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="17"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14527,322 +14553,724 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="12"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="12"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="12"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="12"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="12"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="12"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="12"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="12"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="12"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="12"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="12"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="12"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="12"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="12"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="12"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="12"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="12"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="12"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="12"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="12"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="12"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="12"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="12"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="12"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="12"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="12"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="12"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="12"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="12"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="12"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="12"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="12"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="12"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="12"/>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
+        <f>IFERROR(VLOOKUP(B2,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v>143</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <f>IFERROR(VLOOKUP(B3,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v>84</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <f>IFERROR(VLOOKUP(B4,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v>45</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B5,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B5" s="23"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B6,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B6" s="23"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B7,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B7" s="23"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B8,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B8" s="23"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B9,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B9" s="23"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B10,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B10" s="23"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B11,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B11" s="23"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B12,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B12" s="23"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B13,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B13" s="23"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B14,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B14" s="23"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B15,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B15" s="23"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B16,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B16" s="23"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B17,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B17" s="23"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B18,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B18" s="23"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B19,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B19" s="23"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B20,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B20" s="23"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B21,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B21" s="23"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B22,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B22" s="23"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B23,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B23" s="23"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B24,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B24" s="23"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B25,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B25" s="23"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B26,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B26" s="23"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B27,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B27" s="23"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B28,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B28" s="23"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B29,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B29" s="23"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B30,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B30" s="23"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B31,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B31" s="23"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B32,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B32" s="23"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B33,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B33" s="23"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B34,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B34" s="23"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B35,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B35" s="23"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B36,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B36" s="23"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B37,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B37" s="23"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B38,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B38" s="23"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B39,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B39" s="23"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B40,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B40" s="23"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B41,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B41" s="23"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B42,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B42" s="23"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B43,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B43" s="23"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B44,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B44" s="23"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B45,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B45" s="23"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B46,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B46" s="23"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B47,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B47" s="23"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B48,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B48" s="23"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B49,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B49" s="23"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B50,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B50" s="23"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B51,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B51" s="23"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B52,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B52" s="23"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B53,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B53" s="23"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B54,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B54" s="23"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B55,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B55" s="23"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B56,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B56" s="23"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B57,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B57" s="23"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B58,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B58" s="23"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B59,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B59" s="23"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B60,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B60" s="23"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B61,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B61" s="23"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B62,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B62" s="23"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B63,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B63" s="23"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B64,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B64" s="23"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B65,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B65" s="23"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B66,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B66" s="23"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B67,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B67" s="23"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B68,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B68" s="23"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B69,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B69" s="23"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B70,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B70" s="23"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B71,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B71" s="23"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B72,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B72" s="23"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B73,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B73" s="23"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B74,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B74" s="23"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B75,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B75" s="23"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B76,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B76" s="23"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B77,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B77" s="23"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B78,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B78" s="23"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B79,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B79" s="23"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B80,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B80" s="23"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B81,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B81" s="23"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B82,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B82" s="23"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B83,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B83" s="23"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B84,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B84" s="23"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B85,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B85" s="23"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B86,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B86" s="23"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B87,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B87" s="23"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B88,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B88" s="23"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B89,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B89" s="23"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B90,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B90" s="23"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B91,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B91" s="23"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B92,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B92" s="23"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B93,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B93" s="23"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B94,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B94" s="23"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B95,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B95" s="23"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B96,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B96" s="23"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B97,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B97" s="23"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B98,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B98" s="23"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B99,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B99" s="23"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="20" t="str">
+        <f>IFERROR(VLOOKUP(B100,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="B100" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14853,7 +15281,7 @@
           <x14:formula1>
             <xm:f>'Country list'!$B$1:$B$205</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A100</xm:sqref>
+          <xm:sqref>B2:B100</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -14863,1861 +15291,2477 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C205"/>
+  <dimension ref="A1:D205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="41.140625" customWidth="1"/>
     <col min="3" max="3" width="53.7109375" customWidth="1"/>
+    <col min="4" max="4" width="4" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="16"/>
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17" t="s">
+      <c r="C2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17" t="s">
+      <c r="C4" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="D4" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17" t="s">
+      <c r="C5" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17" t="s">
+      <c r="C6" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C7" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="18">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="18">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="18">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="18">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="18">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" s="18">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="18">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" s="18">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" s="18">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" s="18">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="18">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="18">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="18">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" s="18">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D53" s="18">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+      <c r="B54" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" s="18">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+      <c r="B55" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" s="18">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D56" s="18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" s="18">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="14"/>
+      <c r="B58" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D58" s="18">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="14"/>
+      <c r="B59" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D59" s="18">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="14"/>
+      <c r="B60" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D60" s="18">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="14"/>
+      <c r="B61" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D61" s="18">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="14"/>
+      <c r="B62" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D62" s="18">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="14"/>
+      <c r="B63" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D63" s="18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="14"/>
+      <c r="B64" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D64" s="18">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="14"/>
+      <c r="B65" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D65" s="18">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="14"/>
+      <c r="B66" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D66" s="18">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="14"/>
+      <c r="B67" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D67" s="18">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="14"/>
+      <c r="B68" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D68" s="18">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="14"/>
+      <c r="B69" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D69" s="18">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="14"/>
+      <c r="B70" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D70" s="18">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="14"/>
+      <c r="B71" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D71" s="18">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="14"/>
+      <c r="B72" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D72" s="18">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="14"/>
+      <c r="B73" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D73" s="18">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="14"/>
+      <c r="B74" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D74" s="18">
         <v>71</v>
       </c>
-      <c r="C7" s="15" t="s">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="14"/>
+      <c r="B75" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D75" s="18">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="14"/>
+      <c r="B76" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D76" s="18">
         <v>73</v>
       </c>
-      <c r="C8" s="15" t="s">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="14"/>
+      <c r="B77" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D77" s="18">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="14"/>
+      <c r="B78" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D78" s="18">
         <v>75</v>
       </c>
-      <c r="C9" s="15" t="s">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="14"/>
+      <c r="B79" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="D79" s="18">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="14"/>
+      <c r="B80" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D80" s="18">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="14"/>
+      <c r="B81" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D81" s="18">
         <v>77</v>
       </c>
-      <c r="C10" s="15" t="s">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="14"/>
+      <c r="B82" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D82" s="18">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="14"/>
+      <c r="B83" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="D83" s="18">
         <v>79</v>
       </c>
-      <c r="C11" s="15" t="s">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="14"/>
+      <c r="B84" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D84" s="18">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="14"/>
+      <c r="B85" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D85" s="18">
         <v>81</v>
       </c>
-      <c r="C12" s="15" t="s">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="14"/>
+      <c r="B86" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D86" s="18">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="14"/>
+      <c r="B87" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D87" s="18">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="14"/>
+      <c r="B88" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D88" s="18">
         <v>83</v>
       </c>
-      <c r="C13" s="15" t="s">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="14"/>
+      <c r="B89" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D89" s="18">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="14"/>
+      <c r="B90" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D90" s="18">
         <v>85</v>
       </c>
-      <c r="C14" s="15" t="s">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="14"/>
+      <c r="B91" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D91" s="18">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="14"/>
+      <c r="B92" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D92" s="18">
         <v>87</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17" t="s">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="14"/>
+      <c r="B93" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D93" s="18">
         <v>88</v>
       </c>
-      <c r="C16" s="15" t="s">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="14"/>
+      <c r="B94" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D94" s="18">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="14"/>
+      <c r="B95" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D95" s="18">
         <v>90</v>
       </c>
-      <c r="C17" s="15" t="s">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="14"/>
+      <c r="B96" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D96" s="18">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="14"/>
+      <c r="B97" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D97" s="18">
         <v>92</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17" t="s">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="14"/>
+      <c r="B98" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D98" s="18">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="14"/>
+      <c r="B99" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D99" s="18">
         <v>93</v>
       </c>
-      <c r="C19" s="15" t="s">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="14"/>
+      <c r="B100" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D100" s="18">
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="14"/>
+      <c r="B101" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D101" s="18">
         <v>95</v>
       </c>
-      <c r="C20" s="15" t="s">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="14"/>
+      <c r="B102" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D102" s="18">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="14"/>
+      <c r="B103" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D103" s="18">
         <v>97</v>
       </c>
-      <c r="C21" s="15" t="s">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="14"/>
+      <c r="B104" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="D104" s="18">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="14"/>
+      <c r="B105" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D105" s="18">
         <v>99</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17" t="s">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="14"/>
+      <c r="B106" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D106" s="18">
         <v>100</v>
       </c>
-      <c r="C23" s="15" t="s">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="14"/>
+      <c r="B107" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D107" s="18">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="14"/>
+      <c r="B108" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D108" s="18">
         <v>102</v>
       </c>
-      <c r="C24" s="15" t="s">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="14"/>
+      <c r="B109" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D109" s="18">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="14"/>
+      <c r="B110" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="D110" s="18">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="14"/>
+      <c r="B111" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D111" s="18">
         <v>104</v>
       </c>
-      <c r="C25" s="15" t="s">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="14"/>
+      <c r="B112" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D112" s="18">
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17" t="s">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="14"/>
+      <c r="B113" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="D113" s="18">
         <v>106</v>
       </c>
-      <c r="C26" s="15" t="s">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="14"/>
+      <c r="B114" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D114" s="18">
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17" t="s">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="14"/>
+      <c r="B115" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="D115" s="18">
         <v>108</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17" t="s">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="14"/>
+      <c r="B116" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D116" s="18">
         <v>109</v>
       </c>
-      <c r="C28" s="15" t="s">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="14"/>
+      <c r="B117" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D117" s="18">
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="14"/>
+      <c r="B118" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="D118" s="18">
         <v>111</v>
       </c>
-      <c r="C29" s="15" t="s">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="14"/>
+      <c r="B119" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D119" s="18">
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="14"/>
+      <c r="B120" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D120" s="18">
         <v>113</v>
       </c>
-      <c r="C30" s="15" t="s">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="14"/>
+      <c r="B121" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="D121" s="18">
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="14"/>
+      <c r="B122" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="D122" s="18">
         <v>115</v>
       </c>
-      <c r="C31" s="15" t="s">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="14"/>
+      <c r="B123" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D123" s="18">
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="14"/>
+      <c r="B124" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D124" s="18">
         <v>117</v>
       </c>
-      <c r="C32" s="15" t="s">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="14"/>
+      <c r="B125" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="D125" s="18">
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="14"/>
+      <c r="B126" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="D126" s="18">
         <v>119</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17" t="s">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="14"/>
+      <c r="B127" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="D127" s="18">
         <v>120</v>
       </c>
-      <c r="C34" s="15" t="s">
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="14"/>
+      <c r="B128" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="D128" s="18">
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17" t="s">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="14"/>
+      <c r="B129" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="D129" s="18">
         <v>122</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17" t="s">
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="14"/>
+      <c r="B130" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="D130" s="18">
         <v>123</v>
       </c>
-      <c r="C36" s="15" t="s">
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="14"/>
+      <c r="B131" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="D131" s="18">
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="14"/>
+      <c r="B132" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D132" s="18">
         <v>125</v>
       </c>
-      <c r="C37" s="15" t="s">
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="14"/>
+      <c r="B133" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D133" s="18">
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17" t="s">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="14"/>
+      <c r="B134" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D134" s="18">
         <v>127</v>
       </c>
-      <c r="C38" s="15" t="s">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="14"/>
+      <c r="B135" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="D135" s="18">
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17" t="s">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="14"/>
+      <c r="B136" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D136" s="18">
         <v>129</v>
       </c>
-      <c r="C39" s="15" t="s">
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="14"/>
+      <c r="B137" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="D137" s="18">
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17" t="s">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="14"/>
+      <c r="B138" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="C138" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="D138" s="18">
         <v>131</v>
       </c>
-      <c r="C40" s="15" t="s">
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="14"/>
+      <c r="B139" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D139" s="18">
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="C41" s="15" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="14"/>
+      <c r="B140" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="D140" s="18">
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="C42" s="15" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="14"/>
+      <c r="B141" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="D141" s="18">
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17" t="s">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="14"/>
+      <c r="B142" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C142" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="D142" s="18">
         <v>135</v>
       </c>
-      <c r="C43" s="15" t="s">
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="14"/>
+      <c r="B143" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C143" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="D143" s="18">
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17" t="s">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="14"/>
+      <c r="B144" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="C144" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="D144" s="18">
         <v>137</v>
       </c>
-      <c r="C44" s="15" t="s">
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="14"/>
+      <c r="B145" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="D145" s="18">
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="17" t="s">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="14"/>
+      <c r="B146" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="D146" s="18">
         <v>139</v>
       </c>
-      <c r="C45" s="15" t="s">
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="14"/>
+      <c r="B147" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C147" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="D147" s="18">
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
-      <c r="B46" s="17" t="s">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="14"/>
+      <c r="B148" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="C148" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D148" s="18">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="14"/>
+      <c r="B149" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="D149" s="18">
         <v>141</v>
       </c>
-      <c r="C46" s="15" t="s">
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="14"/>
+      <c r="B150" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="D150" s="18">
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
-      <c r="B47" s="17" t="s">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="14"/>
+      <c r="B151" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="D151" s="18">
         <v>143</v>
       </c>
-      <c r="C47" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="17" t="s">
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="14"/>
+      <c r="B152" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="D152" s="18">
         <v>144</v>
       </c>
-      <c r="C48" s="15" t="s">
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="14"/>
+      <c r="B153" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="C153" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="D153" s="18">
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
-      <c r="B49" s="17" t="s">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="14"/>
+      <c r="B154" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D154" s="18">
         <v>146</v>
       </c>
-      <c r="C49" s="15" t="s">
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="14"/>
+      <c r="B155" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="C155" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="D155" s="18">
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
-      <c r="B50" s="17" t="s">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="14"/>
+      <c r="B156" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="D156" s="18">
         <v>148</v>
       </c>
-      <c r="C50" s="15" t="s">
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="14"/>
+      <c r="B157" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C157" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="D157" s="18">
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
-      <c r="B51" s="17" t="s">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="14"/>
+      <c r="B158" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="C158" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D158" s="18">
         <v>150</v>
       </c>
-      <c r="C51" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
-      <c r="B52" s="17" t="s">
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="14"/>
+      <c r="B159" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="C159" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D159" s="18">
         <v>151</v>
       </c>
-      <c r="C52" s="15" t="s">
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="14"/>
+      <c r="B160" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C160" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="D160" s="18">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="14"/>
+      <c r="B161" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C161" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D161" s="18">
         <v>152</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
-      <c r="B53" s="17" t="s">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="14"/>
+      <c r="B162" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C162" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="D162" s="18">
         <v>153</v>
       </c>
-      <c r="C53" s="15" t="s">
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="14"/>
+      <c r="B163" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="C163" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D163" s="18">
         <v>154</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="B54" s="17" t="s">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="14"/>
+      <c r="B164" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="C164" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="D164" s="18">
         <v>155</v>
       </c>
-      <c r="C54" s="15" t="s">
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="14"/>
+      <c r="B165" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="C165" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="D165" s="18">
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
-      <c r="B55" s="17" t="s">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="14"/>
+      <c r="B166" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="C166" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="D166" s="18">
         <v>157</v>
       </c>
-      <c r="C55" s="15" t="s">
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="14"/>
+      <c r="B167" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="C167" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="D167" s="18">
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="17" t="s">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="14"/>
+      <c r="B168" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="C168" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="D168" s="18">
         <v>159</v>
       </c>
-      <c r="C56" s="15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
-      <c r="B57" s="17" t="s">
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="14"/>
+      <c r="B169" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="C169" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="D169" s="18">
         <v>160</v>
       </c>
-      <c r="C57" s="15" t="s">
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="14"/>
+      <c r="B170" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="C170" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="D170" s="18">
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="16"/>
-      <c r="B58" s="17" t="s">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="14"/>
+      <c r="B171" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="C171" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="D171" s="18">
         <v>162</v>
       </c>
-      <c r="C58" s="15" t="s">
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="14"/>
+      <c r="B172" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="C172" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="D172" s="18">
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
-      <c r="B59" s="17" t="s">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="14"/>
+      <c r="B173" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="C173" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="D173" s="18">
         <v>164</v>
       </c>
-      <c r="C59" s="15" t="s">
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="14"/>
+      <c r="B174" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="C174" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="D174" s="18">
         <v>165</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
-      <c r="B60" s="17" t="s">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="14"/>
+      <c r="B175" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="C175" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="D175" s="18">
         <v>166</v>
       </c>
-      <c r="C60" s="15" t="s">
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="14"/>
+      <c r="B176" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="C176" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="D176" s="18">
         <v>167</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
-      <c r="B61" s="17" t="s">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="14"/>
+      <c r="B177" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="C177" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="D177" s="18">
         <v>168</v>
       </c>
-      <c r="C61" s="15" t="s">
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="14"/>
+      <c r="B178" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="C178" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="D178" s="18">
         <v>169</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
-      <c r="B62" s="17" t="s">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="14"/>
+      <c r="B179" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="C179" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="D179" s="18">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="14"/>
+      <c r="B180" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="C180" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="D180" s="18">
         <v>170</v>
       </c>
-      <c r="C62" s="15" t="s">
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="14"/>
+      <c r="B181" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="C181" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="D181" s="18">
         <v>171</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="16"/>
-      <c r="B63" s="17" t="s">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="14"/>
+      <c r="B182" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="C182" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="D182" s="18">
         <v>172</v>
       </c>
-      <c r="C63" s="15" t="s">
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="14"/>
+      <c r="B183" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="C183" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D183" s="18">
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
-      <c r="B64" s="17" t="s">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="14"/>
+      <c r="B184" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="C184" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="D184" s="18">
         <v>174</v>
       </c>
-      <c r="C64" s="15" t="s">
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="14"/>
+      <c r="B185" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="C185" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="D185" s="18">
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="16"/>
-      <c r="B65" s="17" t="s">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="14"/>
+      <c r="B186" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="D186" s="18">
         <v>176</v>
       </c>
-      <c r="C65" s="15" t="s">
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="14"/>
+      <c r="B187" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="C187" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="D187" s="18">
         <v>177</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="16"/>
-      <c r="B66" s="17" t="s">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="14"/>
+      <c r="B188" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="C188" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="D188" s="18">
         <v>178</v>
       </c>
-      <c r="C66" s="15" t="s">
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="14"/>
+      <c r="B189" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="C189" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D189" s="18">
         <v>179</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="16"/>
-      <c r="B67" s="17" t="s">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="14"/>
+      <c r="B190" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="C190" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D190" s="18">
         <v>180</v>
       </c>
-      <c r="C67" s="15" t="s">
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="14"/>
+      <c r="B191" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="C191" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="D191" s="18">
         <v>181</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="16"/>
-      <c r="B68" s="17" t="s">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="14"/>
+      <c r="B192" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="C192" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D192" s="18">
         <v>182</v>
       </c>
-      <c r="C68" s="15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="16"/>
-      <c r="B69" s="17" t="s">
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="14"/>
+      <c r="B193" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="C193" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="D193" s="18">
         <v>183</v>
       </c>
-      <c r="C69" s="15" t="s">
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="14"/>
+      <c r="B194" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="C194" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="D194" s="18">
         <v>184</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="16"/>
-      <c r="B70" s="17" t="s">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="14"/>
+      <c r="B195" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="C195" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="D195" s="18">
         <v>185</v>
       </c>
-      <c r="C70" s="15" t="s">
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="14"/>
+      <c r="B196" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="C196" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="D196" s="18">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="14"/>
+      <c r="B197" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="C197" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="D197" s="18">
         <v>186</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="16"/>
-      <c r="B71" s="17" t="s">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="14"/>
+      <c r="B198" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="C198" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="D198" s="18">
         <v>187</v>
       </c>
-      <c r="C71" s="15" t="s">
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="14"/>
+      <c r="B199" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="C199" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="D199" s="18">
         <v>188</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="16"/>
-      <c r="B72" s="17" t="s">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="14"/>
+      <c r="B200" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="C200" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="D200" s="18">
         <v>189</v>
       </c>
-      <c r="C72" s="15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="16"/>
-      <c r="B73" s="17" t="s">
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="14"/>
+      <c r="B201" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="C201" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="D201" s="18">
         <v>190</v>
       </c>
-      <c r="C73" s="15" t="s">
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="14"/>
+      <c r="B202" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="C202" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="D202" s="18">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="14"/>
+      <c r="B203" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="C203" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="D203" s="18">
         <v>191</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="16"/>
-      <c r="B74" s="17" t="s">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="14"/>
+      <c r="B204" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="C204" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="D204" s="18">
         <v>192</v>
       </c>
-      <c r="C74" s="15" t="s">
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="14"/>
+      <c r="B205" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="C205" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="D205" s="18">
         <v>193</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="16"/>
-      <c r="B75" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="16"/>
-      <c r="B76" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="16"/>
-      <c r="B77" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="16"/>
-      <c r="B78" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="16"/>
-      <c r="B79" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="16"/>
-      <c r="B80" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="16"/>
-      <c r="B81" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="16"/>
-      <c r="B82" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="16"/>
-      <c r="B83" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="16"/>
-      <c r="B84" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="16"/>
-      <c r="B85" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="16"/>
-      <c r="B86" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="16"/>
-      <c r="B87" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="16"/>
-      <c r="B88" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="16"/>
-      <c r="B89" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="16"/>
-      <c r="B90" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="16"/>
-      <c r="B91" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="16"/>
-      <c r="B92" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="16"/>
-      <c r="B93" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="16"/>
-      <c r="B94" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="C94" s="15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="16"/>
-      <c r="B95" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="16"/>
-      <c r="B96" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="16"/>
-      <c r="B97" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="16"/>
-      <c r="B98" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="16"/>
-      <c r="B99" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="16"/>
-      <c r="B100" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="16"/>
-      <c r="B101" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="16"/>
-      <c r="B102" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="16"/>
-      <c r="B103" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="16"/>
-      <c r="B104" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="C104" s="15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="16"/>
-      <c r="B105" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="16"/>
-      <c r="B106" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="C106" s="15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="16"/>
-      <c r="B107" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="16"/>
-      <c r="B108" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="C108" s="15" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="16"/>
-      <c r="B109" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="16"/>
-      <c r="B110" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="C110" s="15" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="16"/>
-      <c r="B111" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="C111" s="15" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="16"/>
-      <c r="B112" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="16"/>
-      <c r="B113" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="16"/>
-      <c r="B114" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="C114" s="15" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="16"/>
-      <c r="B115" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="C115" s="15" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="16"/>
-      <c r="B116" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="C116" s="15" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="16"/>
-      <c r="B117" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="C117" s="15" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="16"/>
-      <c r="B118" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="C118" s="15" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="16"/>
-      <c r="B119" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C119" s="15" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="16"/>
-      <c r="B120" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="C120" s="15" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="16"/>
-      <c r="B121" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="C121" s="15" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="16"/>
-      <c r="B122" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="C122" s="15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="16"/>
-      <c r="B123" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="C123" s="15" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="16"/>
-      <c r="B124" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="C124" s="15" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="16"/>
-      <c r="B125" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="C125" s="15" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="16"/>
-      <c r="B126" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="C126" s="15" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="16"/>
-      <c r="B127" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="C127" s="15" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="16"/>
-      <c r="B128" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="C128" s="15" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="16"/>
-      <c r="B129" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="C129" s="15" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="16"/>
-      <c r="B130" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="C130" s="15" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="16"/>
-      <c r="B131" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="C131" s="15" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="16"/>
-      <c r="B132" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="C132" s="15" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="16"/>
-      <c r="B133" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="C133" s="15" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="16"/>
-      <c r="B134" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="C134" s="15" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="16"/>
-      <c r="B135" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="C135" s="15" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="16"/>
-      <c r="B136" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="C136" s="15" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="16"/>
-      <c r="B137" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="C137" s="15" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="16"/>
-      <c r="B138" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="C138" s="15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="16"/>
-      <c r="B139" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="C139" s="15" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="16"/>
-      <c r="B140" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="C140" s="15" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="16"/>
-      <c r="B141" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="C141" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="16"/>
-      <c r="B142" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="C142" s="15" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="16"/>
-      <c r="B143" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="C143" s="15" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="16"/>
-      <c r="B144" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="C144" s="15" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="16"/>
-      <c r="B145" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="C145" s="15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="16"/>
-      <c r="B146" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="C146" s="15" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="16"/>
-      <c r="B147" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="C147" s="15" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="16"/>
-      <c r="B148" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="C148" s="15" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="16"/>
-      <c r="B149" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="C149" s="15" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="16"/>
-      <c r="B150" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="C150" s="15" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="16"/>
-      <c r="B151" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="C151" s="15" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="16"/>
-      <c r="B152" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="C152" s="15" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="16"/>
-      <c r="B153" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="C153" s="15" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="16"/>
-      <c r="B154" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="C154" s="15" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="16"/>
-      <c r="B155" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="C155" s="15" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="16"/>
-      <c r="B156" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="C156" s="15" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="16"/>
-      <c r="B157" s="17" t="s">
-        <v>347</v>
-      </c>
-      <c r="C157" s="15" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="16"/>
-      <c r="B158" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="C158" s="15" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="16"/>
-      <c r="B159" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="C159" s="15" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="16"/>
-      <c r="B160" s="17" t="s">
-        <v>353</v>
-      </c>
-      <c r="C160" s="15" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="16"/>
-      <c r="B161" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="C161" s="15" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="16"/>
-      <c r="B162" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="C162" s="15" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="16"/>
-      <c r="B163" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="C163" s="15" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="16"/>
-      <c r="B164" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="C164" s="15" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="16"/>
-      <c r="B165" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="C165" s="15" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="16"/>
-      <c r="B166" s="17" t="s">
-        <v>364</v>
-      </c>
-      <c r="C166" s="15" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="16"/>
-      <c r="B167" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="C167" s="15" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="16"/>
-      <c r="B168" s="17" t="s">
-        <v>368</v>
-      </c>
-      <c r="C168" s="15" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="16"/>
-      <c r="B169" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="C169" s="15" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="16"/>
-      <c r="B170" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="C170" s="15" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="16"/>
-      <c r="B171" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="C171" s="15" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="16"/>
-      <c r="B172" s="17" t="s">
-        <v>375</v>
-      </c>
-      <c r="C172" s="15" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="16"/>
-      <c r="B173" s="17" t="s">
-        <v>377</v>
-      </c>
-      <c r="C173" s="15" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="16"/>
-      <c r="B174" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="C174" s="15" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="16"/>
-      <c r="B175" s="17" t="s">
-        <v>381</v>
-      </c>
-      <c r="C175" s="15" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="16"/>
-      <c r="B176" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="C176" s="15" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="16"/>
-      <c r="B177" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="C177" s="15" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="16"/>
-      <c r="B178" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="C178" s="15" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="16"/>
-      <c r="B179" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="C179" s="15" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="16"/>
-      <c r="B180" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="C180" s="15" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="16"/>
-      <c r="B181" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="C181" s="15" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="16"/>
-      <c r="B182" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="C182" s="15" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="16"/>
-      <c r="B183" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="C183" s="15" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="16"/>
-      <c r="B184" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="C184" s="15" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="16"/>
-      <c r="B185" s="17" t="s">
-        <v>401</v>
-      </c>
-      <c r="C185" s="15" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="16"/>
-      <c r="B186" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="C186" s="15" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="16"/>
-      <c r="B187" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="C187" s="15" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="16"/>
-      <c r="B188" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="C188" s="15" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="16"/>
-      <c r="B189" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="C189" s="15" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="16"/>
-      <c r="B190" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="C190" s="15" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="16"/>
-      <c r="B191" s="17" t="s">
-        <v>411</v>
-      </c>
-      <c r="C191" s="15" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="16"/>
-      <c r="B192" s="17" t="s">
-        <v>412</v>
-      </c>
-      <c r="C192" s="15" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="16"/>
-      <c r="B193" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="C193" s="15" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="16"/>
-      <c r="B194" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="C194" s="15" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="16"/>
-      <c r="B195" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="C195" s="15" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="16"/>
-      <c r="B196" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="C196" s="15" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="16"/>
-      <c r="B197" s="17" t="s">
-        <v>420</v>
-      </c>
-      <c r="C197" s="15" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="16"/>
-      <c r="B198" s="17" t="s">
-        <v>422</v>
-      </c>
-      <c r="C198" s="15" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="16"/>
-      <c r="B199" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="C199" s="15" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="16"/>
-      <c r="B200" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="C200" s="15" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="16"/>
-      <c r="B201" s="17" t="s">
-        <v>428</v>
-      </c>
-      <c r="C201" s="15" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="16"/>
-      <c r="B202" s="17" t="s">
-        <v>430</v>
-      </c>
-      <c r="C202" s="15" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="16"/>
-      <c r="B203" s="17" t="s">
-        <v>431</v>
-      </c>
-      <c r="C203" s="15" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="16"/>
-      <c r="B204" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="C204" s="15" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="16"/>
-      <c r="B205" s="17" t="s">
-        <v>435</v>
-      </c>
-      <c r="C205" s="15" t="s">
-        <v>436</v>
       </c>
     </row>
   </sheetData>

--- a/Template_resume.xlsx
+++ b/Template_resume.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="445">
   <si>
     <t>Name:</t>
   </si>
@@ -1443,7 +1443,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1464,12 +1464,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1487,7 +1481,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1501,11 +1494,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13505,7 +13517,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13524,7 +13536,7 @@
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="21" t="s">
         <v>444</v>
       </c>
     </row>
@@ -13532,7 +13544,7 @@
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -13546,7 +13558,7 @@
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="21" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13554,7 +13566,7 @@
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -13562,7 +13574,7 @@
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="21" t="s">
         <v>11</v>
       </c>
     </row>
@@ -13570,7 +13582,7 @@
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="21" t="s">
         <v>440</v>
       </c>
     </row>
@@ -13578,7 +13590,7 @@
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="22" t="s">
         <v>12</v>
       </c>
     </row>
@@ -13592,7 +13604,7 @@
       <c r="A13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="22" t="s">
         <v>55</v>
       </c>
     </row>
@@ -13600,11 +13612,12 @@
       <c r="A14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="22" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="C6E9" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1"/>
     <hyperlink ref="B13" r:id="rId2"/>
@@ -13617,11 +13630,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13629,105 +13640,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="23" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="23" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+      <c r="A10" s="23"/>
     </row>
     <row r="11" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="23"/>
     </row>
     <row r="12" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="23"/>
     </row>
     <row r="13" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="23"/>
     </row>
     <row r="14" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="23"/>
     </row>
     <row r="15" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="23"/>
     </row>
     <row r="16" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="23"/>
     </row>
     <row r="17" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="23"/>
     </row>
     <row r="18" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+      <c r="A18" s="23"/>
     </row>
     <row r="19" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="A19" s="23"/>
     </row>
     <row r="20" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
+      <c r="A20" s="23"/>
     </row>
     <row r="21" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+      <c r="A21" s="23"/>
     </row>
     <row r="22" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="A22" s="23"/>
     </row>
     <row r="23" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+      <c r="A23" s="23"/>
     </row>
     <row r="24" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
+      <c r="A24" s="23"/>
     </row>
     <row r="25" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
+      <c r="A25" s="23"/>
     </row>
     <row r="26" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
+      <c r="A26" s="23"/>
     </row>
     <row r="27" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
+      <c r="A27" s="23"/>
+    </row>
+    <row r="28" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+    </row>
+    <row r="29" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+    </row>
+    <row r="30" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
     </row>
   </sheetData>
+  <sheetProtection password="C6E9" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13737,7 +13758,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13750,257 +13771,257 @@
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="str">
         <f>IF(ISBLANK(B4),"","Activity:")</f>
         <v>Activity:</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="str">
         <f>IF(ISBLANK(B5),"","Activity:")</f>
         <v>Activity:</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
     </row>
     <row r="6" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
         <f t="shared" ref="A6:A50" si="0">IF(ISBLANK(B6),"","Activity:")</f>
         <v>Activity:</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
     </row>
     <row r="7" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Activity:</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
     </row>
     <row r="8" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Activity:</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
     </row>
     <row r="9" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Activity:</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
     </row>
     <row r="10" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Activity:</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
     </row>
     <row r="11" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Activity:</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
     </row>
     <row r="12" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Activity:</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
     </row>
     <row r="13" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Activity:</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
     </row>
     <row r="14" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Activity:</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
     </row>
     <row r="15" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Activity:</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="16" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B16" s="11"/>
+      <c r="B16" s="9"/>
     </row>
     <row r="17" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
@@ -14207,6 +14228,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="C6E9" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14216,148 +14238,149 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="64.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="24" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="24" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="24"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="24"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="24"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="20"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="24"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="24"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="24"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="24"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="24"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="24"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="20"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="24"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="20"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="24"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="24"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="20"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection password="C6E9" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -14368,185 +14391,186 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="25" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="25" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="17"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="25"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="17"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="17"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="17"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="25"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="17"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="25"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="17"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="17"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="25"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="17"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="25"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="17"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="25"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="25"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="17"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="25"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="17"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="25"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="17"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="17"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="25"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="17"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="25"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="17"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="25"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="25"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="17"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="25"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="17"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="25"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="17"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="25"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="17"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="25"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="17"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="25"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="17"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="25"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="17"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="25"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="17"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="25"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="17"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="25"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="17"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="25"/>
     </row>
   </sheetData>
+  <sheetProtection password="C6E9" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14556,723 +14580,726 @@
   <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>441</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="19" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
+      <c r="A2" s="17">
         <f>IFERROR(VLOOKUP(B2,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v>143</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+      <c r="A3" s="17">
         <f>IFERROR(VLOOKUP(B3,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v>84</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="26" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="A4" s="17">
         <f>IFERROR(VLOOKUP(B4,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v>45</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="26" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="str">
+      <c r="A5" s="17">
         <f>IFERROR(VLOOKUP(B5,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="B5" s="23"/>
+        <v>2</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="str">
+      <c r="A6" s="17" t="str">
         <f>IFERROR(VLOOKUP(B6,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="26"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="str">
+      <c r="A7" s="17" t="str">
         <f>IFERROR(VLOOKUP(B7,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="26"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="str">
+      <c r="A8" s="17" t="str">
         <f>IFERROR(VLOOKUP(B8,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="26"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="str">
+      <c r="A9" s="17" t="str">
         <f>IFERROR(VLOOKUP(B9,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="26"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="str">
+      <c r="A10" s="17" t="str">
         <f>IFERROR(VLOOKUP(B10,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="26"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="str">
+      <c r="A11" s="17" t="str">
         <f>IFERROR(VLOOKUP(B11,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="26"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="str">
+      <c r="A12" s="17" t="str">
         <f>IFERROR(VLOOKUP(B12,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="26"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="str">
+      <c r="A13" s="17" t="str">
         <f>IFERROR(VLOOKUP(B13,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="26"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="str">
+      <c r="A14" s="17" t="str">
         <f>IFERROR(VLOOKUP(B14,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="26"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="str">
+      <c r="A15" s="17" t="str">
         <f>IFERROR(VLOOKUP(B15,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="26"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="str">
+      <c r="A16" s="17" t="str">
         <f>IFERROR(VLOOKUP(B16,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B16" s="23"/>
+      <c r="B16" s="26"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="str">
+      <c r="A17" s="17" t="str">
         <f>IFERROR(VLOOKUP(B17,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B17" s="23"/>
+      <c r="B17" s="26"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="str">
+      <c r="A18" s="17" t="str">
         <f>IFERROR(VLOOKUP(B18,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B18" s="23"/>
+      <c r="B18" s="26"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="str">
+      <c r="A19" s="17" t="str">
         <f>IFERROR(VLOOKUP(B19,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B19" s="23"/>
+      <c r="B19" s="26"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="str">
+      <c r="A20" s="17" t="str">
         <f>IFERROR(VLOOKUP(B20,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="26"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="str">
+      <c r="A21" s="17" t="str">
         <f>IFERROR(VLOOKUP(B21,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="26"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="str">
+      <c r="A22" s="17" t="str">
         <f>IFERROR(VLOOKUP(B22,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B22" s="23"/>
+      <c r="B22" s="26"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="str">
+      <c r="A23" s="17" t="str">
         <f>IFERROR(VLOOKUP(B23,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B23" s="23"/>
+      <c r="B23" s="26"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="str">
+      <c r="A24" s="17" t="str">
         <f>IFERROR(VLOOKUP(B24,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B24" s="23"/>
+      <c r="B24" s="26"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="str">
+      <c r="A25" s="17" t="str">
         <f>IFERROR(VLOOKUP(B25,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B25" s="23"/>
+      <c r="B25" s="26"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="str">
+      <c r="A26" s="17" t="str">
         <f>IFERROR(VLOOKUP(B26,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B26" s="23"/>
+      <c r="B26" s="26"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="str">
+      <c r="A27" s="17" t="str">
         <f>IFERROR(VLOOKUP(B27,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B27" s="23"/>
+      <c r="B27" s="26"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="str">
+      <c r="A28" s="17" t="str">
         <f>IFERROR(VLOOKUP(B28,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B28" s="23"/>
+      <c r="B28" s="26"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="str">
+      <c r="A29" s="17" t="str">
         <f>IFERROR(VLOOKUP(B29,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B29" s="23"/>
+      <c r="B29" s="26"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="str">
+      <c r="A30" s="17" t="str">
         <f>IFERROR(VLOOKUP(B30,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B30" s="23"/>
+      <c r="B30" s="26"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="str">
+      <c r="A31" s="17" t="str">
         <f>IFERROR(VLOOKUP(B31,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B31" s="23"/>
+      <c r="B31" s="26"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="str">
+      <c r="A32" s="17" t="str">
         <f>IFERROR(VLOOKUP(B32,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B32" s="23"/>
+      <c r="B32" s="26"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="str">
+      <c r="A33" s="17" t="str">
         <f>IFERROR(VLOOKUP(B33,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B33" s="23"/>
+      <c r="B33" s="26"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="str">
+      <c r="A34" s="17" t="str">
         <f>IFERROR(VLOOKUP(B34,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B34" s="23"/>
+      <c r="B34" s="26"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="str">
+      <c r="A35" s="17" t="str">
         <f>IFERROR(VLOOKUP(B35,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B35" s="23"/>
+      <c r="B35" s="26"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="str">
+      <c r="A36" s="17" t="str">
         <f>IFERROR(VLOOKUP(B36,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B36" s="23"/>
+      <c r="B36" s="26"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="str">
+      <c r="A37" s="17" t="str">
         <f>IFERROR(VLOOKUP(B37,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B37" s="23"/>
+      <c r="B37" s="26"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="str">
+      <c r="A38" s="17" t="str">
         <f>IFERROR(VLOOKUP(B38,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B38" s="23"/>
+      <c r="B38" s="26"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="str">
+      <c r="A39" s="17" t="str">
         <f>IFERROR(VLOOKUP(B39,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B39" s="23"/>
+      <c r="B39" s="26"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="str">
+      <c r="A40" s="17" t="str">
         <f>IFERROR(VLOOKUP(B40,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B40" s="23"/>
+      <c r="B40" s="26"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="str">
+      <c r="A41" s="17" t="str">
         <f>IFERROR(VLOOKUP(B41,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B41" s="23"/>
+      <c r="B41" s="26"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="str">
+      <c r="A42" s="17" t="str">
         <f>IFERROR(VLOOKUP(B42,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B42" s="23"/>
+      <c r="B42" s="26"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="str">
+      <c r="A43" s="17" t="str">
         <f>IFERROR(VLOOKUP(B43,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B43" s="23"/>
+      <c r="B43" s="26"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="str">
+      <c r="A44" s="17" t="str">
         <f>IFERROR(VLOOKUP(B44,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B44" s="23"/>
+      <c r="B44" s="26"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="str">
+      <c r="A45" s="17" t="str">
         <f>IFERROR(VLOOKUP(B45,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B45" s="23"/>
+      <c r="B45" s="26"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="str">
+      <c r="A46" s="17" t="str">
         <f>IFERROR(VLOOKUP(B46,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B46" s="23"/>
+      <c r="B46" s="26"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="str">
+      <c r="A47" s="17" t="str">
         <f>IFERROR(VLOOKUP(B47,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B47" s="23"/>
+      <c r="B47" s="26"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="str">
+      <c r="A48" s="17" t="str">
         <f>IFERROR(VLOOKUP(B48,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B48" s="23"/>
+      <c r="B48" s="26"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="str">
+      <c r="A49" s="17" t="str">
         <f>IFERROR(VLOOKUP(B49,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B49" s="23"/>
+      <c r="B49" s="26"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="20" t="str">
+      <c r="A50" s="17" t="str">
         <f>IFERROR(VLOOKUP(B50,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B50" s="23"/>
+      <c r="B50" s="26"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="str">
+      <c r="A51" s="17" t="str">
         <f>IFERROR(VLOOKUP(B51,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B51" s="23"/>
+      <c r="B51" s="26"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="20" t="str">
+      <c r="A52" s="17" t="str">
         <f>IFERROR(VLOOKUP(B52,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B52" s="23"/>
+      <c r="B52" s="26"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="20" t="str">
+      <c r="A53" s="17" t="str">
         <f>IFERROR(VLOOKUP(B53,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B53" s="23"/>
+      <c r="B53" s="26"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="str">
+      <c r="A54" s="17" t="str">
         <f>IFERROR(VLOOKUP(B54,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B54" s="23"/>
+      <c r="B54" s="26"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="20" t="str">
+      <c r="A55" s="17" t="str">
         <f>IFERROR(VLOOKUP(B55,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B55" s="23"/>
+      <c r="B55" s="26"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="str">
+      <c r="A56" s="17" t="str">
         <f>IFERROR(VLOOKUP(B56,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B56" s="23"/>
+      <c r="B56" s="26"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="str">
+      <c r="A57" s="17" t="str">
         <f>IFERROR(VLOOKUP(B57,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B57" s="23"/>
+      <c r="B57" s="26"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="str">
+      <c r="A58" s="17" t="str">
         <f>IFERROR(VLOOKUP(B58,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B58" s="23"/>
+      <c r="B58" s="26"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="20" t="str">
+      <c r="A59" s="17" t="str">
         <f>IFERROR(VLOOKUP(B59,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B59" s="23"/>
+      <c r="B59" s="26"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="20" t="str">
+      <c r="A60" s="17" t="str">
         <f>IFERROR(VLOOKUP(B60,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B60" s="23"/>
+      <c r="B60" s="26"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="20" t="str">
+      <c r="A61" s="17" t="str">
         <f>IFERROR(VLOOKUP(B61,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B61" s="23"/>
+      <c r="B61" s="26"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="20" t="str">
+      <c r="A62" s="17" t="str">
         <f>IFERROR(VLOOKUP(B62,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B62" s="23"/>
+      <c r="B62" s="26"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="20" t="str">
+      <c r="A63" s="17" t="str">
         <f>IFERROR(VLOOKUP(B63,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B63" s="23"/>
+      <c r="B63" s="26"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="20" t="str">
+      <c r="A64" s="17" t="str">
         <f>IFERROR(VLOOKUP(B64,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B64" s="23"/>
+      <c r="B64" s="26"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="20" t="str">
+      <c r="A65" s="17" t="str">
         <f>IFERROR(VLOOKUP(B65,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B65" s="23"/>
+      <c r="B65" s="26"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="20" t="str">
+      <c r="A66" s="17" t="str">
         <f>IFERROR(VLOOKUP(B66,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B66" s="23"/>
+      <c r="B66" s="26"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="20" t="str">
+      <c r="A67" s="17" t="str">
         <f>IFERROR(VLOOKUP(B67,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B67" s="23"/>
+      <c r="B67" s="26"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="20" t="str">
+      <c r="A68" s="17" t="str">
         <f>IFERROR(VLOOKUP(B68,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B68" s="23"/>
+      <c r="B68" s="26"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="20" t="str">
+      <c r="A69" s="17" t="str">
         <f>IFERROR(VLOOKUP(B69,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B69" s="23"/>
+      <c r="B69" s="26"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="20" t="str">
+      <c r="A70" s="17" t="str">
         <f>IFERROR(VLOOKUP(B70,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B70" s="23"/>
+      <c r="B70" s="26"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="20" t="str">
+      <c r="A71" s="17" t="str">
         <f>IFERROR(VLOOKUP(B71,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B71" s="23"/>
+      <c r="B71" s="26"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="20" t="str">
+      <c r="A72" s="17" t="str">
         <f>IFERROR(VLOOKUP(B72,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B72" s="23"/>
+      <c r="B72" s="26"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="20" t="str">
+      <c r="A73" s="17" t="str">
         <f>IFERROR(VLOOKUP(B73,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B73" s="23"/>
+      <c r="B73" s="26"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="20" t="str">
+      <c r="A74" s="17" t="str">
         <f>IFERROR(VLOOKUP(B74,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B74" s="23"/>
+      <c r="B74" s="26"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="20" t="str">
+      <c r="A75" s="17" t="str">
         <f>IFERROR(VLOOKUP(B75,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B75" s="23"/>
+      <c r="B75" s="26"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="20" t="str">
+      <c r="A76" s="17" t="str">
         <f>IFERROR(VLOOKUP(B76,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B76" s="23"/>
+      <c r="B76" s="26"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="20" t="str">
+      <c r="A77" s="17" t="str">
         <f>IFERROR(VLOOKUP(B77,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B77" s="23"/>
+      <c r="B77" s="26"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="20" t="str">
+      <c r="A78" s="17" t="str">
         <f>IFERROR(VLOOKUP(B78,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B78" s="23"/>
+      <c r="B78" s="26"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="20" t="str">
+      <c r="A79" s="17" t="str">
         <f>IFERROR(VLOOKUP(B79,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B79" s="23"/>
+      <c r="B79" s="26"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="20" t="str">
+      <c r="A80" s="17" t="str">
         <f>IFERROR(VLOOKUP(B80,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B80" s="23"/>
+      <c r="B80" s="26"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="20" t="str">
+      <c r="A81" s="17" t="str">
         <f>IFERROR(VLOOKUP(B81,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B81" s="23"/>
+      <c r="B81" s="26"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="20" t="str">
+      <c r="A82" s="17" t="str">
         <f>IFERROR(VLOOKUP(B82,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B82" s="23"/>
+      <c r="B82" s="26"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="20" t="str">
+      <c r="A83" s="17" t="str">
         <f>IFERROR(VLOOKUP(B83,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B83" s="23"/>
+      <c r="B83" s="26"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="20" t="str">
+      <c r="A84" s="17" t="str">
         <f>IFERROR(VLOOKUP(B84,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B84" s="23"/>
+      <c r="B84" s="26"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="20" t="str">
+      <c r="A85" s="17" t="str">
         <f>IFERROR(VLOOKUP(B85,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B85" s="23"/>
+      <c r="B85" s="26"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="20" t="str">
+      <c r="A86" s="17" t="str">
         <f>IFERROR(VLOOKUP(B86,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B86" s="23"/>
+      <c r="B86" s="26"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="20" t="str">
+      <c r="A87" s="17" t="str">
         <f>IFERROR(VLOOKUP(B87,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B87" s="23"/>
+      <c r="B87" s="26"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="20" t="str">
+      <c r="A88" s="17" t="str">
         <f>IFERROR(VLOOKUP(B88,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B88" s="23"/>
+      <c r="B88" s="26"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="20" t="str">
+      <c r="A89" s="17" t="str">
         <f>IFERROR(VLOOKUP(B89,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B89" s="23"/>
+      <c r="B89" s="26"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="20" t="str">
+      <c r="A90" s="17" t="str">
         <f>IFERROR(VLOOKUP(B90,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B90" s="23"/>
+      <c r="B90" s="26"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="20" t="str">
+      <c r="A91" s="17" t="str">
         <f>IFERROR(VLOOKUP(B91,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B91" s="23"/>
+      <c r="B91" s="26"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="20" t="str">
+      <c r="A92" s="17" t="str">
         <f>IFERROR(VLOOKUP(B92,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B92" s="23"/>
+      <c r="B92" s="26"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="20" t="str">
+      <c r="A93" s="17" t="str">
         <f>IFERROR(VLOOKUP(B93,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B93" s="23"/>
+      <c r="B93" s="26"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="20" t="str">
+      <c r="A94" s="17" t="str">
         <f>IFERROR(VLOOKUP(B94,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B94" s="23"/>
+      <c r="B94" s="26"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="20" t="str">
+      <c r="A95" s="17" t="str">
         <f>IFERROR(VLOOKUP(B95,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B95" s="23"/>
+      <c r="B95" s="26"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="20" t="str">
+      <c r="A96" s="17" t="str">
         <f>IFERROR(VLOOKUP(B96,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B96" s="23"/>
+      <c r="B96" s="26"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="20" t="str">
+      <c r="A97" s="17" t="str">
         <f>IFERROR(VLOOKUP(B97,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B97" s="23"/>
+      <c r="B97" s="26"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="20" t="str">
+      <c r="A98" s="17" t="str">
         <f>IFERROR(VLOOKUP(B98,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B98" s="23"/>
+      <c r="B98" s="26"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="20" t="str">
+      <c r="A99" s="17" t="str">
         <f>IFERROR(VLOOKUP(B99,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B99" s="23"/>
+      <c r="B99" s="26"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="20" t="str">
+      <c r="A100" s="17" t="str">
         <f>IFERROR(VLOOKUP(B100,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B100" s="23"/>
+      <c r="B100" s="26"/>
     </row>
   </sheetData>
+  <sheetProtection password="C6E9" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -15294,2477 +15321,2478 @@
   <dimension ref="A1:D205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="41.140625" customWidth="1"/>
     <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="4" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="12"/>
+      <c r="B1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="18">
+      <c r="D1" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="15">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="15">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="15">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="15">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="15">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="15">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="15">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="15">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="15">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="15">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="15">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="15">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="15">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="15">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="15">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="15">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15" t="s">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="15">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15" t="s">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="15">
         <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="15">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="15">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15" t="s">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="15">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="15">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15" t="s">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="15">
         <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15" t="s">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="15">
         <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15" t="s">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="15">
         <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15" t="s">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="15">
         <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15" t="s">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="15">
         <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15" t="s">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="15">
         <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15" t="s">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="15">
         <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="15" t="s">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="15">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15" t="s">
+      <c r="A39" s="12"/>
+      <c r="B39" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="15">
         <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15" t="s">
+      <c r="A40" s="12"/>
+      <c r="B40" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="15">
         <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15" t="s">
+      <c r="A41" s="12"/>
+      <c r="B41" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D41" s="15">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15" t="s">
+      <c r="A42" s="12"/>
+      <c r="B42" s="13" t="s">
         <v>438</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D42" s="15">
         <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="15" t="s">
+      <c r="A43" s="12"/>
+      <c r="B43" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="15">
         <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="15" t="s">
+      <c r="A44" s="12"/>
+      <c r="B44" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="15">
         <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="15" t="s">
+      <c r="A45" s="12"/>
+      <c r="B45" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D45" s="15">
         <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="15" t="s">
+      <c r="A46" s="12"/>
+      <c r="B46" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="15">
         <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="15" t="s">
+      <c r="A47" s="12"/>
+      <c r="B47" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D47" s="15">
         <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="15" t="s">
+      <c r="A48" s="12"/>
+      <c r="B48" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="D48" s="18">
+      <c r="D48" s="15">
         <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="15" t="s">
+      <c r="A49" s="12"/>
+      <c r="B49" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D49" s="15">
         <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="15" t="s">
+      <c r="A50" s="12"/>
+      <c r="B50" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D50" s="15">
         <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="15" t="s">
+      <c r="A51" s="12"/>
+      <c r="B51" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D51" s="15">
         <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="15" t="s">
+      <c r="A52" s="12"/>
+      <c r="B52" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="D52" s="18">
+      <c r="D52" s="15">
         <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="15" t="s">
+      <c r="A53" s="12"/>
+      <c r="B53" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="D53" s="18">
+      <c r="D53" s="15">
         <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="15" t="s">
+      <c r="A54" s="12"/>
+      <c r="B54" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="D54" s="18">
+      <c r="D54" s="15">
         <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="15" t="s">
+      <c r="A55" s="12"/>
+      <c r="B55" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="D55" s="18">
+      <c r="D55" s="15">
         <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="15" t="s">
+      <c r="A56" s="12"/>
+      <c r="B56" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D56" s="18">
+      <c r="D56" s="15">
         <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="15" t="s">
+      <c r="A57" s="12"/>
+      <c r="B57" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D57" s="18">
+      <c r="D57" s="15">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="15" t="s">
+      <c r="A58" s="12"/>
+      <c r="B58" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D58" s="18">
+      <c r="D58" s="15">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="15" t="s">
+      <c r="A59" s="12"/>
+      <c r="B59" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D59" s="18">
+      <c r="D59" s="15">
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
-      <c r="B60" s="15" t="s">
+      <c r="A60" s="12"/>
+      <c r="B60" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D60" s="18">
+      <c r="D60" s="15">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
-      <c r="B61" s="15" t="s">
+      <c r="A61" s="12"/>
+      <c r="B61" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D61" s="18">
+      <c r="D61" s="15">
         <v>194</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="15" t="s">
+      <c r="A62" s="12"/>
+      <c r="B62" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D62" s="18">
+      <c r="D62" s="15">
         <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
-      <c r="B63" s="15" t="s">
+      <c r="A63" s="12"/>
+      <c r="B63" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D63" s="18">
+      <c r="D63" s="15">
         <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
-      <c r="B64" s="15" t="s">
+      <c r="A64" s="12"/>
+      <c r="B64" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="D64" s="18">
+      <c r="D64" s="15">
         <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
-      <c r="B65" s="15" t="s">
+      <c r="A65" s="12"/>
+      <c r="B65" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C65" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D65" s="18">
+      <c r="D65" s="15">
         <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
-      <c r="B66" s="15" t="s">
+      <c r="A66" s="12"/>
+      <c r="B66" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C66" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="D66" s="18">
+      <c r="D66" s="15">
         <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
-      <c r="B67" s="15" t="s">
+      <c r="A67" s="12"/>
+      <c r="B67" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C67" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="D67" s="18">
+      <c r="D67" s="15">
         <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
-      <c r="B68" s="15" t="s">
+      <c r="A68" s="12"/>
+      <c r="B68" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C68" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="D68" s="18">
+      <c r="D68" s="15">
         <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="15" t="s">
+      <c r="A69" s="12"/>
+      <c r="B69" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C69" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="D69" s="18">
+      <c r="D69" s="15">
         <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
-      <c r="B70" s="15" t="s">
+      <c r="A70" s="12"/>
+      <c r="B70" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C70" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="D70" s="18">
+      <c r="D70" s="15">
         <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
-      <c r="B71" s="15" t="s">
+      <c r="A71" s="12"/>
+      <c r="B71" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="D71" s="18">
+      <c r="D71" s="15">
         <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
-      <c r="B72" s="15" t="s">
+      <c r="A72" s="12"/>
+      <c r="B72" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C72" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D72" s="18">
+      <c r="D72" s="15">
         <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
-      <c r="B73" s="15" t="s">
+      <c r="A73" s="12"/>
+      <c r="B73" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D73" s="18">
+      <c r="D73" s="15">
         <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
-      <c r="B74" s="15" t="s">
+      <c r="A74" s="12"/>
+      <c r="B74" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C74" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="D74" s="18">
+      <c r="D74" s="15">
         <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
-      <c r="B75" s="15" t="s">
+      <c r="A75" s="12"/>
+      <c r="B75" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C75" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="D75" s="18">
+      <c r="D75" s="15">
         <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
-      <c r="B76" s="15" t="s">
+      <c r="A76" s="12"/>
+      <c r="B76" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C76" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D76" s="18">
+      <c r="D76" s="15">
         <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
-      <c r="B77" s="15" t="s">
+      <c r="A77" s="12"/>
+      <c r="B77" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C77" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="D77" s="18">
+      <c r="D77" s="15">
         <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
-      <c r="B78" s="15" t="s">
+      <c r="A78" s="12"/>
+      <c r="B78" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C78" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="D78" s="18">
+      <c r="D78" s="15">
         <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
-      <c r="B79" s="15" t="s">
+      <c r="A79" s="12"/>
+      <c r="B79" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C79" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="D79" s="18">
+      <c r="D79" s="15">
         <v>196</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
-      <c r="B80" s="15" t="s">
+      <c r="A80" s="12"/>
+      <c r="B80" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C80" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="D80" s="18">
+      <c r="D80" s="15">
         <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
-      <c r="B81" s="15" t="s">
+      <c r="A81" s="12"/>
+      <c r="B81" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C81" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="D81" s="18">
+      <c r="D81" s="15">
         <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
-      <c r="B82" s="15" t="s">
+      <c r="A82" s="12"/>
+      <c r="B82" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C82" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="D82" s="18">
+      <c r="D82" s="15">
         <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
-      <c r="B83" s="15" t="s">
+      <c r="A83" s="12"/>
+      <c r="B83" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C83" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="D83" s="18">
+      <c r="D83" s="15">
         <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
-      <c r="B84" s="15" t="s">
+      <c r="A84" s="12"/>
+      <c r="B84" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C84" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="D84" s="18">
+      <c r="D84" s="15">
         <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
-      <c r="B85" s="15" t="s">
+      <c r="A85" s="12"/>
+      <c r="B85" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C85" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="D85" s="18">
+      <c r="D85" s="15">
         <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
-      <c r="B86" s="15" t="s">
+      <c r="A86" s="12"/>
+      <c r="B86" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="D86" s="18">
+      <c r="D86" s="15">
         <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="14"/>
-      <c r="B87" s="15" t="s">
+      <c r="A87" s="12"/>
+      <c r="B87" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C87" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="D87" s="18">
+      <c r="D87" s="15">
         <v>205</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="14"/>
-      <c r="B88" s="15" t="s">
+      <c r="A88" s="12"/>
+      <c r="B88" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C88" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="D88" s="18">
+      <c r="D88" s="15">
         <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="14"/>
-      <c r="B89" s="15" t="s">
+      <c r="A89" s="12"/>
+      <c r="B89" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C89" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="D89" s="18">
+      <c r="D89" s="15">
         <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
-      <c r="B90" s="15" t="s">
+      <c r="A90" s="12"/>
+      <c r="B90" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C90" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="D90" s="18">
+      <c r="D90" s="15">
         <v>85</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
-      <c r="B91" s="15" t="s">
+      <c r="A91" s="12"/>
+      <c r="B91" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C91" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="D91" s="18">
+      <c r="D91" s="15">
         <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="14"/>
-      <c r="B92" s="15" t="s">
+      <c r="A92" s="12"/>
+      <c r="B92" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C92" s="13" t="s">
+      <c r="C92" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="D92" s="18">
+      <c r="D92" s="15">
         <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="14"/>
-      <c r="B93" s="15" t="s">
+      <c r="A93" s="12"/>
+      <c r="B93" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="C93" s="13" t="s">
+      <c r="C93" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="D93" s="18">
+      <c r="D93" s="15">
         <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="14"/>
-      <c r="B94" s="15" t="s">
+      <c r="A94" s="12"/>
+      <c r="B94" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C94" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="D94" s="18">
+      <c r="D94" s="15">
         <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="14"/>
-      <c r="B95" s="15" t="s">
+      <c r="A95" s="12"/>
+      <c r="B95" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="C95" s="13" t="s">
+      <c r="C95" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="D95" s="18">
+      <c r="D95" s="15">
         <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="14"/>
-      <c r="B96" s="15" t="s">
+      <c r="A96" s="12"/>
+      <c r="B96" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="C96" s="13" t="s">
+      <c r="C96" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="D96" s="18">
+      <c r="D96" s="15">
         <v>91</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="14"/>
-      <c r="B97" s="15" t="s">
+      <c r="A97" s="12"/>
+      <c r="B97" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="C97" s="13" t="s">
+      <c r="C97" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D97" s="18">
+      <c r="D97" s="15">
         <v>92</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="14"/>
-      <c r="B98" s="15" t="s">
+      <c r="A98" s="12"/>
+      <c r="B98" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="C98" s="13" t="s">
+      <c r="C98" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="D98" s="18">
+      <c r="D98" s="15">
         <v>199</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="14"/>
-      <c r="B99" s="15" t="s">
+      <c r="A99" s="12"/>
+      <c r="B99" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="C99" s="13" t="s">
+      <c r="C99" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="D99" s="18">
+      <c r="D99" s="15">
         <v>93</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="14"/>
-      <c r="B100" s="15" t="s">
+      <c r="A100" s="12"/>
+      <c r="B100" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="C100" s="13" t="s">
+      <c r="C100" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="D100" s="18">
+      <c r="D100" s="15">
         <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="14"/>
-      <c r="B101" s="15" t="s">
+      <c r="A101" s="12"/>
+      <c r="B101" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="C101" s="13" t="s">
+      <c r="C101" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="D101" s="18">
+      <c r="D101" s="15">
         <v>95</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="14"/>
-      <c r="B102" s="15" t="s">
+      <c r="A102" s="12"/>
+      <c r="B102" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="C102" s="13" t="s">
+      <c r="C102" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="D102" s="18">
+      <c r="D102" s="15">
         <v>96</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="14"/>
-      <c r="B103" s="15" t="s">
+      <c r="A103" s="12"/>
+      <c r="B103" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="C103" s="13" t="s">
+      <c r="C103" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="D103" s="18">
+      <c r="D103" s="15">
         <v>97</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="14"/>
-      <c r="B104" s="15" t="s">
+      <c r="A104" s="12"/>
+      <c r="B104" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="C104" s="13" t="s">
+      <c r="C104" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="D104" s="18">
+      <c r="D104" s="15">
         <v>98</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="14"/>
-      <c r="B105" s="15" t="s">
+      <c r="A105" s="12"/>
+      <c r="B105" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="C105" s="13" t="s">
+      <c r="C105" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="D105" s="18">
+      <c r="D105" s="15">
         <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="14"/>
-      <c r="B106" s="15" t="s">
+      <c r="A106" s="12"/>
+      <c r="B106" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="C106" s="13" t="s">
+      <c r="C106" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="D106" s="18">
+      <c r="D106" s="15">
         <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="14"/>
-      <c r="B107" s="15" t="s">
+      <c r="A107" s="12"/>
+      <c r="B107" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="C107" s="13" t="s">
+      <c r="C107" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="D107" s="18">
+      <c r="D107" s="15">
         <v>101</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="14"/>
-      <c r="B108" s="15" t="s">
+      <c r="A108" s="12"/>
+      <c r="B108" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="C108" s="13" t="s">
+      <c r="C108" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="D108" s="18">
+      <c r="D108" s="15">
         <v>102</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="14"/>
-      <c r="B109" s="15" t="s">
+      <c r="A109" s="12"/>
+      <c r="B109" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="C109" s="13" t="s">
+      <c r="C109" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="D109" s="18">
+      <c r="D109" s="15">
         <v>103</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="14"/>
-      <c r="B110" s="15" t="s">
+      <c r="A110" s="12"/>
+      <c r="B110" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="C110" s="13" t="s">
+      <c r="C110" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="D110" s="18">
+      <c r="D110" s="15">
         <v>197</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="14"/>
-      <c r="B111" s="15" t="s">
+      <c r="A111" s="12"/>
+      <c r="B111" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="C111" s="13" t="s">
+      <c r="C111" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="D111" s="18">
+      <c r="D111" s="15">
         <v>104</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="14"/>
-      <c r="B112" s="15" t="s">
+      <c r="A112" s="12"/>
+      <c r="B112" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="C112" s="13" t="s">
+      <c r="C112" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="D112" s="18">
+      <c r="D112" s="15">
         <v>105</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="14"/>
-      <c r="B113" s="15" t="s">
+      <c r="A113" s="12"/>
+      <c r="B113" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="C113" s="13" t="s">
+      <c r="C113" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="D113" s="18">
+      <c r="D113" s="15">
         <v>106</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="14"/>
-      <c r="B114" s="15" t="s">
+      <c r="A114" s="12"/>
+      <c r="B114" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="C114" s="13" t="s">
+      <c r="C114" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="D114" s="18">
+      <c r="D114" s="15">
         <v>107</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="14"/>
-      <c r="B115" s="15" t="s">
+      <c r="A115" s="12"/>
+      <c r="B115" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="C115" s="13" t="s">
+      <c r="C115" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="D115" s="18">
+      <c r="D115" s="15">
         <v>108</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="14"/>
-      <c r="B116" s="15" t="s">
+      <c r="A116" s="12"/>
+      <c r="B116" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="C116" s="13" t="s">
+      <c r="C116" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="D116" s="18">
+      <c r="D116" s="15">
         <v>109</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="14"/>
-      <c r="B117" s="15" t="s">
+      <c r="A117" s="12"/>
+      <c r="B117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C117" s="13" t="s">
+      <c r="C117" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="D117" s="18">
+      <c r="D117" s="15">
         <v>110</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="14"/>
-      <c r="B118" s="15" t="s">
+      <c r="A118" s="12"/>
+      <c r="B118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C118" s="13" t="s">
+      <c r="C118" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="D118" s="18">
+      <c r="D118" s="15">
         <v>111</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="14"/>
-      <c r="B119" s="15" t="s">
+      <c r="A119" s="12"/>
+      <c r="B119" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="C119" s="13" t="s">
+      <c r="C119" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="D119" s="18">
+      <c r="D119" s="15">
         <v>112</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="14"/>
-      <c r="B120" s="15" t="s">
+      <c r="A120" s="12"/>
+      <c r="B120" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="C120" s="13" t="s">
+      <c r="C120" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="D120" s="18">
+      <c r="D120" s="15">
         <v>113</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="14"/>
-      <c r="B121" s="15" t="s">
+      <c r="A121" s="12"/>
+      <c r="B121" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="C121" s="13" t="s">
+      <c r="C121" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="D121" s="18">
+      <c r="D121" s="15">
         <v>114</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="14"/>
-      <c r="B122" s="15" t="s">
+      <c r="A122" s="12"/>
+      <c r="B122" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="C122" s="13" t="s">
+      <c r="C122" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="D122" s="18">
+      <c r="D122" s="15">
         <v>115</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="14"/>
-      <c r="B123" s="15" t="s">
+      <c r="A123" s="12"/>
+      <c r="B123" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="C123" s="13" t="s">
+      <c r="C123" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="D123" s="18">
+      <c r="D123" s="15">
         <v>116</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="14"/>
-      <c r="B124" s="15" t="s">
+      <c r="A124" s="12"/>
+      <c r="B124" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="C124" s="13" t="s">
+      <c r="C124" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="D124" s="18">
+      <c r="D124" s="15">
         <v>117</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="14"/>
-      <c r="B125" s="15" t="s">
+      <c r="A125" s="12"/>
+      <c r="B125" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="C125" s="13" t="s">
+      <c r="C125" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="D125" s="18">
+      <c r="D125" s="15">
         <v>118</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="14"/>
-      <c r="B126" s="15" t="s">
+      <c r="A126" s="12"/>
+      <c r="B126" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="C126" s="13" t="s">
+      <c r="C126" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="D126" s="18">
+      <c r="D126" s="15">
         <v>119</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="14"/>
-      <c r="B127" s="15" t="s">
+      <c r="A127" s="12"/>
+      <c r="B127" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="C127" s="13" t="s">
+      <c r="C127" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="D127" s="18">
+      <c r="D127" s="15">
         <v>120</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="14"/>
-      <c r="B128" s="15" t="s">
+      <c r="A128" s="12"/>
+      <c r="B128" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="C128" s="13" t="s">
+      <c r="C128" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="D128" s="18">
+      <c r="D128" s="15">
         <v>121</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="14"/>
-      <c r="B129" s="15" t="s">
+      <c r="A129" s="12"/>
+      <c r="B129" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="C129" s="13" t="s">
+      <c r="C129" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="D129" s="18">
+      <c r="D129" s="15">
         <v>122</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="14"/>
-      <c r="B130" s="15" t="s">
+      <c r="A130" s="12"/>
+      <c r="B130" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="C130" s="13" t="s">
+      <c r="C130" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="D130" s="18">
+      <c r="D130" s="15">
         <v>123</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="14"/>
-      <c r="B131" s="15" t="s">
+      <c r="A131" s="12"/>
+      <c r="B131" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="C131" s="13" t="s">
+      <c r="C131" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="D131" s="18">
+      <c r="D131" s="15">
         <v>124</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="14"/>
-      <c r="B132" s="15" t="s">
+      <c r="A132" s="12"/>
+      <c r="B132" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="C132" s="13" t="s">
+      <c r="C132" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="D132" s="18">
+      <c r="D132" s="15">
         <v>125</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="14"/>
-      <c r="B133" s="15" t="s">
+      <c r="A133" s="12"/>
+      <c r="B133" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="C133" s="13" t="s">
+      <c r="C133" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="D133" s="18">
+      <c r="D133" s="15">
         <v>126</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="14"/>
-      <c r="B134" s="15" t="s">
+      <c r="A134" s="12"/>
+      <c r="B134" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="C134" s="13" t="s">
+      <c r="C134" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="D134" s="18">
+      <c r="D134" s="15">
         <v>127</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="14"/>
-      <c r="B135" s="15" t="s">
+      <c r="A135" s="12"/>
+      <c r="B135" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="C135" s="13" t="s">
+      <c r="C135" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="D135" s="18">
+      <c r="D135" s="15">
         <v>128</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="14"/>
-      <c r="B136" s="15" t="s">
+      <c r="A136" s="12"/>
+      <c r="B136" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="C136" s="13" t="s">
+      <c r="C136" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="D136" s="18">
+      <c r="D136" s="15">
         <v>129</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="14"/>
-      <c r="B137" s="15" t="s">
+      <c r="A137" s="12"/>
+      <c r="B137" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="C137" s="13" t="s">
+      <c r="C137" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="D137" s="18">
+      <c r="D137" s="15">
         <v>130</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="14"/>
-      <c r="B138" s="15" t="s">
+      <c r="A138" s="12"/>
+      <c r="B138" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="C138" s="13" t="s">
+      <c r="C138" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="D138" s="18">
+      <c r="D138" s="15">
         <v>131</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="14"/>
-      <c r="B139" s="15" t="s">
+      <c r="A139" s="12"/>
+      <c r="B139" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="C139" s="13" t="s">
+      <c r="C139" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="D139" s="18">
+      <c r="D139" s="15">
         <v>132</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="14"/>
-      <c r="B140" s="15" t="s">
+      <c r="A140" s="12"/>
+      <c r="B140" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="C140" s="13" t="s">
+      <c r="C140" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="D140" s="18">
+      <c r="D140" s="15">
         <v>133</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="14"/>
-      <c r="B141" s="15" t="s">
+      <c r="A141" s="12"/>
+      <c r="B141" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="C141" s="13" t="s">
+      <c r="C141" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="D141" s="18">
+      <c r="D141" s="15">
         <v>134</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="14"/>
-      <c r="B142" s="15" t="s">
+      <c r="A142" s="12"/>
+      <c r="B142" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="C142" s="13" t="s">
+      <c r="C142" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="D142" s="18">
+      <c r="D142" s="15">
         <v>135</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="14"/>
-      <c r="B143" s="15" t="s">
+      <c r="A143" s="12"/>
+      <c r="B143" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="C143" s="13" t="s">
+      <c r="C143" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="D143" s="18">
+      <c r="D143" s="15">
         <v>136</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="14"/>
-      <c r="B144" s="15" t="s">
+      <c r="A144" s="12"/>
+      <c r="B144" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="C144" s="13" t="s">
+      <c r="C144" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="D144" s="18">
+      <c r="D144" s="15">
         <v>137</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="14"/>
-      <c r="B145" s="15" t="s">
+      <c r="A145" s="12"/>
+      <c r="B145" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="C145" s="13" t="s">
+      <c r="C145" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="D145" s="18">
+      <c r="D145" s="15">
         <v>138</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="14"/>
-      <c r="B146" s="15" t="s">
+      <c r="A146" s="12"/>
+      <c r="B146" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="C146" s="13" t="s">
+      <c r="C146" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="D146" s="18">
+      <c r="D146" s="15">
         <v>139</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="14"/>
-      <c r="B147" s="15" t="s">
+      <c r="A147" s="12"/>
+      <c r="B147" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="C147" s="13" t="s">
+      <c r="C147" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="D147" s="18">
+      <c r="D147" s="15">
         <v>140</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="14"/>
-      <c r="B148" s="15" t="s">
+      <c r="A148" s="12"/>
+      <c r="B148" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="C148" s="13" t="s">
+      <c r="C148" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="D148" s="18">
+      <c r="D148" s="15">
         <v>203</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="14"/>
-      <c r="B149" s="15" t="s">
+      <c r="A149" s="12"/>
+      <c r="B149" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="C149" s="13" t="s">
+      <c r="C149" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="D149" s="18">
+      <c r="D149" s="15">
         <v>141</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="14"/>
-      <c r="B150" s="15" t="s">
+      <c r="A150" s="12"/>
+      <c r="B150" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="C150" s="13" t="s">
+      <c r="C150" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="D150" s="18">
+      <c r="D150" s="15">
         <v>142</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="14"/>
-      <c r="B151" s="15" t="s">
+      <c r="A151" s="12"/>
+      <c r="B151" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="C151" s="13" t="s">
+      <c r="C151" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="D151" s="18">
+      <c r="D151" s="15">
         <v>143</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="14"/>
-      <c r="B152" s="15" t="s">
+      <c r="A152" s="12"/>
+      <c r="B152" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="C152" s="13" t="s">
+      <c r="C152" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="D152" s="18">
+      <c r="D152" s="15">
         <v>144</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="14"/>
-      <c r="B153" s="15" t="s">
+      <c r="A153" s="12"/>
+      <c r="B153" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="C153" s="13" t="s">
+      <c r="C153" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="D153" s="18">
+      <c r="D153" s="15">
         <v>145</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="14"/>
-      <c r="B154" s="15" t="s">
+      <c r="A154" s="12"/>
+      <c r="B154" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="C154" s="13" t="s">
+      <c r="C154" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="D154" s="18">
+      <c r="D154" s="15">
         <v>146</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="14"/>
-      <c r="B155" s="15" t="s">
+      <c r="A155" s="12"/>
+      <c r="B155" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="C155" s="13" t="s">
+      <c r="C155" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="D155" s="18">
+      <c r="D155" s="15">
         <v>147</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="14"/>
-      <c r="B156" s="15" t="s">
+      <c r="A156" s="12"/>
+      <c r="B156" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="C156" s="13" t="s">
+      <c r="C156" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="D156" s="18">
+      <c r="D156" s="15">
         <v>148</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="14"/>
-      <c r="B157" s="15" t="s">
+      <c r="A157" s="12"/>
+      <c r="B157" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="C157" s="13" t="s">
+      <c r="C157" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="D157" s="18">
+      <c r="D157" s="15">
         <v>149</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="14"/>
-      <c r="B158" s="15" t="s">
+      <c r="A158" s="12"/>
+      <c r="B158" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="C158" s="13" t="s">
+      <c r="C158" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="D158" s="18">
+      <c r="D158" s="15">
         <v>150</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="14"/>
-      <c r="B159" s="15" t="s">
+      <c r="A159" s="12"/>
+      <c r="B159" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="C159" s="13" t="s">
+      <c r="C159" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="D159" s="18">
+      <c r="D159" s="15">
         <v>151</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="14"/>
-      <c r="B160" s="15" t="s">
+      <c r="A160" s="12"/>
+      <c r="B160" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="C160" s="13" t="s">
+      <c r="C160" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="D160" s="18">
+      <c r="D160" s="15">
         <v>195</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="14"/>
-      <c r="B161" s="15" t="s">
+      <c r="A161" s="12"/>
+      <c r="B161" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="C161" s="13" t="s">
+      <c r="C161" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="D161" s="18">
+      <c r="D161" s="15">
         <v>152</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="14"/>
-      <c r="B162" s="15" t="s">
+      <c r="A162" s="12"/>
+      <c r="B162" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="C162" s="13" t="s">
+      <c r="C162" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="D162" s="18">
+      <c r="D162" s="15">
         <v>153</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="14"/>
-      <c r="B163" s="15" t="s">
+      <c r="A163" s="12"/>
+      <c r="B163" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="C163" s="13" t="s">
+      <c r="C163" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D163" s="18">
+      <c r="D163" s="15">
         <v>154</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="14"/>
-      <c r="B164" s="15" t="s">
+      <c r="A164" s="12"/>
+      <c r="B164" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="C164" s="13" t="s">
+      <c r="C164" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="D164" s="18">
+      <c r="D164" s="15">
         <v>155</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="14"/>
-      <c r="B165" s="15" t="s">
+      <c r="A165" s="12"/>
+      <c r="B165" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="C165" s="13" t="s">
+      <c r="C165" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="D165" s="18">
+      <c r="D165" s="15">
         <v>156</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="14"/>
-      <c r="B166" s="15" t="s">
+      <c r="A166" s="12"/>
+      <c r="B166" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="C166" s="13" t="s">
+      <c r="C166" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="D166" s="18">
+      <c r="D166" s="15">
         <v>157</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="14"/>
-      <c r="B167" s="15" t="s">
+      <c r="A167" s="12"/>
+      <c r="B167" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="C167" s="13" t="s">
+      <c r="C167" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="D167" s="18">
+      <c r="D167" s="15">
         <v>158</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="14"/>
-      <c r="B168" s="15" t="s">
+      <c r="A168" s="12"/>
+      <c r="B168" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="C168" s="13" t="s">
+      <c r="C168" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="D168" s="18">
+      <c r="D168" s="15">
         <v>159</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="14"/>
-      <c r="B169" s="15" t="s">
+      <c r="A169" s="12"/>
+      <c r="B169" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="C169" s="13" t="s">
+      <c r="C169" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="D169" s="18">
+      <c r="D169" s="15">
         <v>160</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="14"/>
-      <c r="B170" s="15" t="s">
+      <c r="A170" s="12"/>
+      <c r="B170" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="C170" s="13" t="s">
+      <c r="C170" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="D170" s="18">
+      <c r="D170" s="15">
         <v>161</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="14"/>
-      <c r="B171" s="15" t="s">
+      <c r="A171" s="12"/>
+      <c r="B171" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="C171" s="13" t="s">
+      <c r="C171" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="D171" s="18">
+      <c r="D171" s="15">
         <v>162</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="14"/>
-      <c r="B172" s="15" t="s">
+      <c r="A172" s="12"/>
+      <c r="B172" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="C172" s="13" t="s">
+      <c r="C172" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="D172" s="18">
+      <c r="D172" s="15">
         <v>163</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="14"/>
-      <c r="B173" s="15" t="s">
+      <c r="A173" s="12"/>
+      <c r="B173" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="C173" s="13" t="s">
+      <c r="C173" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="D173" s="18">
+      <c r="D173" s="15">
         <v>164</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="14"/>
-      <c r="B174" s="15" t="s">
+      <c r="A174" s="12"/>
+      <c r="B174" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="C174" s="13" t="s">
+      <c r="C174" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="D174" s="18">
+      <c r="D174" s="15">
         <v>165</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="14"/>
-      <c r="B175" s="15" t="s">
+      <c r="A175" s="12"/>
+      <c r="B175" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="C175" s="13" t="s">
+      <c r="C175" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="D175" s="18">
+      <c r="D175" s="15">
         <v>166</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="14"/>
-      <c r="B176" s="15" t="s">
+      <c r="A176" s="12"/>
+      <c r="B176" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="C176" s="13" t="s">
+      <c r="C176" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="D176" s="18">
+      <c r="D176" s="15">
         <v>167</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="14"/>
-      <c r="B177" s="15" t="s">
+      <c r="A177" s="12"/>
+      <c r="B177" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="C177" s="13" t="s">
+      <c r="C177" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="D177" s="18">
+      <c r="D177" s="15">
         <v>168</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="14"/>
-      <c r="B178" s="15" t="s">
+      <c r="A178" s="12"/>
+      <c r="B178" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="C178" s="13" t="s">
+      <c r="C178" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="D178" s="18">
+      <c r="D178" s="15">
         <v>169</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="14"/>
-      <c r="B179" s="15" t="s">
+      <c r="A179" s="12"/>
+      <c r="B179" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="C179" s="13" t="s">
+      <c r="C179" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="D179" s="18">
+      <c r="D179" s="15">
         <v>198</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="14"/>
-      <c r="B180" s="15" t="s">
+      <c r="A180" s="12"/>
+      <c r="B180" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="C180" s="13" t="s">
+      <c r="C180" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="D180" s="18">
+      <c r="D180" s="15">
         <v>170</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="14"/>
-      <c r="B181" s="15" t="s">
+      <c r="A181" s="12"/>
+      <c r="B181" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="C181" s="13" t="s">
+      <c r="C181" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="D181" s="18">
+      <c r="D181" s="15">
         <v>171</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="14"/>
-      <c r="B182" s="15" t="s">
+      <c r="A182" s="12"/>
+      <c r="B182" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="C182" s="13" t="s">
+      <c r="C182" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="D182" s="18">
+      <c r="D182" s="15">
         <v>172</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="14"/>
-      <c r="B183" s="15" t="s">
+      <c r="A183" s="12"/>
+      <c r="B183" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="C183" s="13" t="s">
+      <c r="C183" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="D183" s="18">
+      <c r="D183" s="15">
         <v>173</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="14"/>
-      <c r="B184" s="15" t="s">
+      <c r="A184" s="12"/>
+      <c r="B184" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="C184" s="13" t="s">
+      <c r="C184" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="D184" s="18">
+      <c r="D184" s="15">
         <v>174</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="14"/>
-      <c r="B185" s="15" t="s">
+      <c r="A185" s="12"/>
+      <c r="B185" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="C185" s="13" t="s">
+      <c r="C185" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="D185" s="18">
+      <c r="D185" s="15">
         <v>175</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="14"/>
-      <c r="B186" s="15" t="s">
+      <c r="A186" s="12"/>
+      <c r="B186" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="C186" s="13" t="s">
+      <c r="C186" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="D186" s="18">
+      <c r="D186" s="15">
         <v>176</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="14"/>
-      <c r="B187" s="15" t="s">
+      <c r="A187" s="12"/>
+      <c r="B187" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="C187" s="13" t="s">
+      <c r="C187" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="D187" s="18">
+      <c r="D187" s="15">
         <v>177</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="14"/>
-      <c r="B188" s="15" t="s">
+      <c r="A188" s="12"/>
+      <c r="B188" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="C188" s="13" t="s">
+      <c r="C188" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="D188" s="18">
+      <c r="D188" s="15">
         <v>178</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="14"/>
-      <c r="B189" s="15" t="s">
+      <c r="A189" s="12"/>
+      <c r="B189" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="C189" s="13" t="s">
+      <c r="C189" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="D189" s="18">
+      <c r="D189" s="15">
         <v>179</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="14"/>
-      <c r="B190" s="15" t="s">
+      <c r="A190" s="12"/>
+      <c r="B190" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="C190" s="13" t="s">
+      <c r="C190" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="D190" s="18">
+      <c r="D190" s="15">
         <v>180</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="14"/>
-      <c r="B191" s="15" t="s">
+      <c r="A191" s="12"/>
+      <c r="B191" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="C191" s="13" t="s">
+      <c r="C191" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="D191" s="18">
+      <c r="D191" s="15">
         <v>181</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="14"/>
-      <c r="B192" s="15" t="s">
+      <c r="A192" s="12"/>
+      <c r="B192" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="C192" s="13" t="s">
+      <c r="C192" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="D192" s="18">
+      <c r="D192" s="15">
         <v>182</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="14"/>
-      <c r="B193" s="15" t="s">
+      <c r="A193" s="12"/>
+      <c r="B193" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="C193" s="13" t="s">
+      <c r="C193" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="D193" s="18">
+      <c r="D193" s="15">
         <v>183</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="14"/>
-      <c r="B194" s="15" t="s">
+      <c r="A194" s="12"/>
+      <c r="B194" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="C194" s="13" t="s">
+      <c r="C194" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="D194" s="18">
+      <c r="D194" s="15">
         <v>184</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="14"/>
-      <c r="B195" s="15" t="s">
+      <c r="A195" s="12"/>
+      <c r="B195" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="C195" s="13" t="s">
+      <c r="C195" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="D195" s="18">
+      <c r="D195" s="15">
         <v>185</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="14"/>
-      <c r="B196" s="15" t="s">
+      <c r="A196" s="12"/>
+      <c r="B196" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="C196" s="13" t="s">
+      <c r="C196" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="D196" s="18">
+      <c r="D196" s="15">
         <v>204</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="14"/>
-      <c r="B197" s="15" t="s">
+      <c r="A197" s="12"/>
+      <c r="B197" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="C197" s="13" t="s">
+      <c r="C197" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="D197" s="18">
+      <c r="D197" s="15">
         <v>186</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="14"/>
-      <c r="B198" s="15" t="s">
+      <c r="A198" s="12"/>
+      <c r="B198" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="C198" s="13" t="s">
+      <c r="C198" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="D198" s="18">
+      <c r="D198" s="15">
         <v>187</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="14"/>
-      <c r="B199" s="15" t="s">
+      <c r="A199" s="12"/>
+      <c r="B199" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="C199" s="13" t="s">
+      <c r="C199" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="D199" s="18">
+      <c r="D199" s="15">
         <v>188</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="14"/>
-      <c r="B200" s="15" t="s">
+      <c r="A200" s="12"/>
+      <c r="B200" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="C200" s="13" t="s">
+      <c r="C200" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="D200" s="18">
+      <c r="D200" s="15">
         <v>189</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="14"/>
-      <c r="B201" s="15" t="s">
+      <c r="A201" s="12"/>
+      <c r="B201" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="C201" s="13" t="s">
+      <c r="C201" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="D201" s="18">
+      <c r="D201" s="15">
         <v>190</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="14"/>
-      <c r="B202" s="15" t="s">
+      <c r="A202" s="12"/>
+      <c r="B202" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="C202" s="13" t="s">
+      <c r="C202" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="D202" s="18">
+      <c r="D202" s="15">
         <v>202</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="14"/>
-      <c r="B203" s="15" t="s">
+      <c r="A203" s="12"/>
+      <c r="B203" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="C203" s="13" t="s">
+      <c r="C203" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="D203" s="18">
+      <c r="D203" s="15">
         <v>191</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="14"/>
-      <c r="B204" s="15" t="s">
+      <c r="A204" s="12"/>
+      <c r="B204" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="C204" s="13" t="s">
+      <c r="C204" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="D204" s="18">
+      <c r="D204" s="15">
         <v>192</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="14"/>
-      <c r="B205" s="15" t="s">
+      <c r="A205" s="12"/>
+      <c r="B205" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="C205" s="13" t="s">
+      <c r="C205" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="D205" s="18">
+      <c r="D205" s="15">
         <v>193</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="C6E9" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="http://flags.redpixart.com/afghanistan/"/>
     <hyperlink ref="B2" r:id="rId2" display="http://flags.redpixart.com/albania/"/>

--- a/Template_resume.xlsx
+++ b/Template_resume.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="General data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="445">
   <si>
     <t>Name:</t>
   </si>
@@ -13516,8 +13516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14579,8 +14579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14625,13 +14625,11 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="17" t="str">
         <f>IFERROR(VLOOKUP(B5,'Country list'!$B$1:$D$205,3,FALSE),"")</f>
-        <v>2</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>61</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B5" s="26"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="str">
